--- a/tests/models/test_network__basic/input/model_simple_network.xlsx
+++ b/tests/models/test_network__basic/input/model_simple_network.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/testcode/tests/models/test_network__basic/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sira/tests/models/test_network__basic/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEB123D-BF1C-2043-96AE-F6A7A87CC2BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C693317-671A-344B-80D9-3932917B20D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="17440" tabRatio="937" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,12 +114,6 @@
     <t>minimum</t>
   </si>
   <si>
-    <t>recovery_mean</t>
-  </si>
-  <si>
-    <t>recovery_std</t>
-  </si>
-  <si>
     <t>recovery_95percentile</t>
   </si>
   <si>
@@ -457,9 +451,6 @@
     <t>recovery_function</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>Output capacity measured in MW.</t>
   </si>
   <si>
@@ -677,6 +668,15 @@
   </si>
   <si>
     <t>Water Supply Commercial</t>
+  </si>
+  <si>
+    <t>recovery_param1</t>
+  </si>
+  <si>
+    <t>recovery_param2</t>
+  </si>
+  <si>
+    <t>Rayleigh</t>
   </si>
 </sst>
 </file>
@@ -2269,84 +2269,84 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="64"/>
     </row>
     <row r="6" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" s="64"/>
     </row>
     <row r="7" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" s="64"/>
     </row>
     <row r="8" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="64"/>
     </row>
     <row r="9" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C9" s="64"/>
     </row>
@@ -2512,88 +2512,88 @@
   <sheetData>
     <row r="1" spans="1:3" s="89" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>140</v>
-      </c>
       <c r="C1" s="88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
     </row>
     <row r="4" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="90" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90"/>
     </row>
     <row r="6" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90"/>
     </row>
     <row r="8" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
     </row>
     <row r="9" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90"/>
     </row>
     <row r="10" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90"/>
     </row>
     <row r="11" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="90" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90"/>
     </row>
     <row r="12" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
@@ -2958,126 +2958,126 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3105,42 +3105,42 @@
   <sheetData>
     <row r="1" spans="1:18" s="20" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F1" s="129" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" s="130"/>
       <c r="H1" s="130"/>
       <c r="I1" s="129" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J1" s="130"/>
       <c r="K1" s="130"/>
       <c r="L1" s="129" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M1" s="130"/>
       <c r="N1" s="130"/>
       <c r="O1" s="129" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P1" s="130"/>
       <c r="Q1" s="130"/>
       <c r="R1" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3150,40 +3150,40 @@
       <c r="D2" s="22"/>
       <c r="E2" s="38"/>
       <c r="F2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>88</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="R2" s="33"/>
     </row>
@@ -3194,40 +3194,40 @@
       <c r="D3" s="23"/>
       <c r="E3" s="39"/>
       <c r="F3" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="I3" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="L3" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="O3" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>93</v>
       </c>
       <c r="R3" s="34"/>
     </row>
@@ -3836,74 +3836,74 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="18"/>
     </row>
@@ -4092,33 +4092,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="116" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H1" s="116" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I1" s="116" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" s="117" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="105">
         <v>0</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F2" s="104" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G2" s="107">
         <v>1</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="103" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="105">
         <v>0</v>
       </c>
       <c r="E3" s="106" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G3" s="107">
         <v>1</v>
@@ -4165,22 +4165,22 @@
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="118" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D4" s="105">
         <v>0.35</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="104" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G4" s="107">
         <v>1</v>
@@ -4196,22 +4196,22 @@
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="104" t="s">
-        <v>162</v>
-      </c>
       <c r="C5" s="104" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D5" s="105">
         <v>0.35</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G5" s="107">
         <v>1</v>
@@ -4227,22 +4227,22 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="118" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" s="104" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D6" s="105">
         <v>0.3</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="104" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G6" s="107">
         <v>1</v>
@@ -4331,10 +4331,10 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" s="52">
         <v>1</v>
@@ -4345,10 +4345,10 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" s="52">
         <v>1</v>
@@ -4359,10 +4359,10 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" s="52">
         <v>1</v>
@@ -4373,10 +4373,10 @@
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="52">
         <v>1</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="109" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" s="50">
         <v>1000</v>
@@ -5400,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -5470,10 +5470,10 @@
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="110" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" s="45">
         <v>500</v>
@@ -5548,10 +5548,10 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6:J9"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5575,7 +5575,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>1</v>
@@ -5584,19 +5584,19 @@
         <v>19</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I1" s="78" t="s">
         <v>21</v>
@@ -5608,25 +5608,25 @@
         <v>23</v>
       </c>
       <c r="L1" s="79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M1" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="84" t="s">
-        <v>110</v>
-      </c>
       <c r="O1" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="R1" s="81" t="s">
         <v>25</v>
-      </c>
-      <c r="Q1" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="81" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -5635,16 +5635,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="72">
         <v>0.23</v>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L2" s="74">
         <v>0.01</v>
@@ -5671,19 +5671,19 @@
         <v>0.95</v>
       </c>
       <c r="N2" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O2" s="99">
-        <v>1.6710292746097057</v>
+        <v>0</v>
       </c>
       <c r="P2" s="83">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="100">
         <v>2</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -5692,16 +5692,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="72">
         <v>0.38</v>
@@ -5719,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L3" s="74">
         <v>0.05</v>
@@ -5728,13 +5728,13 @@
         <v>0.75</v>
       </c>
       <c r="N3" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O3" s="99">
-        <v>4.1775731865242642</v>
+        <v>1</v>
       </c>
       <c r="P3" s="83">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="100">
         <v>5</v>
@@ -5747,16 +5747,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="72">
         <v>0.55000000000000004</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L4" s="74">
         <v>0.3</v>
@@ -5783,13 +5783,13 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O4" s="99">
-        <v>50.130878238291174</v>
+        <v>2</v>
       </c>
       <c r="P4" s="83">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="100">
         <v>60</v>
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" s="122" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="72">
         <v>0.8</v>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L5" s="74">
         <v>1</v>
@@ -5838,13 +5838,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O5" s="99">
-        <v>125.32719559572793</v>
+        <v>5</v>
       </c>
       <c r="P5" s="83">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="100">
         <v>150</v>
@@ -5857,16 +5857,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="120" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="72">
         <v>0.15</v>
@@ -5884,7 +5884,7 @@
         <v>0.95</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L6" s="74">
         <v>0.01</v>
@@ -5893,19 +5893,19 @@
         <v>0.95</v>
       </c>
       <c r="N6" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O6" s="99">
-        <v>0.83551463730485287</v>
+        <v>0</v>
       </c>
       <c r="P6" s="83">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="12">
         <v>1</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -5914,16 +5914,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="72">
         <v>0.7</v>
@@ -5941,7 +5941,7 @@
         <v>0.75</v>
       </c>
       <c r="K7" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L7" s="74">
         <v>0.05</v>
@@ -5950,13 +5950,13 @@
         <v>0.75</v>
       </c>
       <c r="N7" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O7" s="99">
-        <v>1.6710292746097057</v>
+        <v>1</v>
       </c>
       <c r="P7" s="83">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="12">
         <v>2</v>
@@ -5969,16 +5969,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" s="121" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="72">
         <v>101</v>
@@ -5996,7 +5996,7 @@
         <v>0.3</v>
       </c>
       <c r="K8" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L8" s="74">
         <v>1</v>
@@ -6005,13 +6005,13 @@
         <v>0.3</v>
       </c>
       <c r="N8" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O8" s="99">
-        <v>83.551463730485281</v>
+        <v>2</v>
       </c>
       <c r="P8" s="83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="12">
         <v>100</v>
@@ -6024,16 +6024,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="72">
         <v>101</v>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L9" s="74">
         <v>1</v>
@@ -6060,13 +6060,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O9" s="99">
-        <v>125.32719559572793</v>
+        <v>2</v>
       </c>
       <c r="P9" s="83">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="12">
         <v>150</v>
@@ -6079,16 +6079,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="120" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="75">
         <v>101</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L10" s="74">
         <v>0</v>
@@ -6115,19 +6115,19 @@
         <v>1</v>
       </c>
       <c r="N10" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O10" s="99">
-        <v>0.41775731865242643</v>
+        <v>0</v>
       </c>
       <c r="P10" s="83">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="14">
         <v>0.5</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -6136,16 +6136,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="75">
         <v>101</v>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L11" s="74">
         <v>0</v>
@@ -6172,13 +6172,13 @@
         <v>1</v>
       </c>
       <c r="N11" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O11" s="99">
-        <v>0.83551463730485287</v>
+        <v>0</v>
       </c>
       <c r="P11" s="83">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="14">
         <v>1</v>
@@ -6191,16 +6191,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="121" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="75">
         <v>101</v>
@@ -6218,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L12" s="74">
         <v>0</v>
@@ -6227,13 +6227,13 @@
         <v>1</v>
       </c>
       <c r="N12" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O12" s="99">
-        <v>1.6710292746097057</v>
+        <v>0</v>
       </c>
       <c r="P12" s="83">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="14">
         <v>2</v>
@@ -6246,16 +6246,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="122" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="75">
         <v>101</v>
@@ -6273,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L13" s="74">
         <v>0</v>
@@ -6282,13 +6282,13 @@
         <v>1</v>
       </c>
       <c r="N13" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O13" s="99">
-        <v>3.3420585492194115</v>
+        <v>0</v>
       </c>
       <c r="P13" s="83">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="14">
         <v>4</v>
@@ -6301,16 +6301,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="75">
         <v>101</v>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L14" s="74">
         <v>0</v>
@@ -6337,19 +6337,19 @@
         <v>1</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O14" s="99">
-        <v>0.41775731865242643</v>
+        <v>0</v>
       </c>
       <c r="P14" s="83">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="14">
         <v>0.5</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -6358,16 +6358,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="75">
         <v>101</v>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L15" s="74">
         <v>0</v>
@@ -6394,13 +6394,13 @@
         <v>1</v>
       </c>
       <c r="N15" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O15" s="99">
-        <v>0.83551463730485287</v>
+        <v>0</v>
       </c>
       <c r="P15" s="83">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="14">
         <v>1</v>
@@ -6413,16 +6413,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="121" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="75">
         <v>101</v>
@@ -6440,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L16" s="74">
         <v>0</v>
@@ -6449,13 +6449,13 @@
         <v>1</v>
       </c>
       <c r="N16" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O16" s="99">
-        <v>1.6710292746097057</v>
+        <v>0</v>
       </c>
       <c r="P16" s="83">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="14">
         <v>2</v>
@@ -6468,16 +6468,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="122" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="75">
         <v>101</v>
@@ -6495,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L17" s="74">
         <v>0</v>
@@ -6504,13 +6504,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O17" s="99">
-        <v>3.3420585492194115</v>
+        <v>0</v>
       </c>
       <c r="P17" s="83">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="14">
         <v>4</v>
@@ -6523,16 +6523,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="75">
         <v>101</v>
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L18" s="74">
         <v>0</v>
@@ -6559,19 +6559,19 @@
         <v>1</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O18" s="99">
-        <v>0.41775731865242643</v>
+        <v>0</v>
       </c>
       <c r="P18" s="83">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="14">
         <v>0.5</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -6580,16 +6580,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" s="75">
         <v>101</v>
@@ -6607,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L19" s="74">
         <v>0</v>
@@ -6616,19 +6616,19 @@
         <v>1</v>
       </c>
       <c r="N19" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O19" s="99">
-        <v>0.83551463730485287</v>
+        <v>0</v>
       </c>
       <c r="P19" s="83">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="14">
         <v>1</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -6637,16 +6637,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="121" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="75">
         <v>101</v>
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L20" s="74">
         <v>0</v>
@@ -6673,19 +6673,19 @@
         <v>1</v>
       </c>
       <c r="N20" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O20" s="99">
-        <v>1.6710292746097057</v>
+        <v>0</v>
       </c>
       <c r="P20" s="83">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="14">
         <v>2</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -6694,16 +6694,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="122" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="75">
         <v>101</v>
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L21" s="74">
         <v>0</v>
@@ -6730,13 +6730,13 @@
         <v>1</v>
       </c>
       <c r="N21" s="85" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O21" s="99">
-        <v>3.3420585492194115</v>
+        <v>0</v>
       </c>
       <c r="P21" s="83">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="14">
         <v>4</v>
@@ -6815,27 +6815,27 @@
         <v>19</v>
       </c>
       <c r="C1" s="95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="95" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E1" s="95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F1" s="95" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="123" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" s="123" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D2" s="123"/>
       <c r="E2" s="123"/>
@@ -6843,13 +6843,13 @@
     </row>
     <row r="3" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B3" s="125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D3" s="125"/>
       <c r="E3" s="125"/>
@@ -6857,13 +6857,13 @@
     </row>
     <row r="4" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B4" s="125" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="126" t="s">
         <v>178</v>
-      </c>
-      <c r="C4" s="126" t="s">
-        <v>181</v>
       </c>
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
@@ -6871,13 +6871,13 @@
     </row>
     <row r="5" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="127" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D5" s="127"/>
       <c r="E5" s="127"/>
@@ -6885,13 +6885,13 @@
     </row>
     <row r="6" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="125" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D6" s="125"/>
       <c r="E6" s="125"/>
@@ -6899,13 +6899,13 @@
     </row>
     <row r="7" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="125" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C7" s="126" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="125"/>
       <c r="E7" s="125"/>
@@ -6913,13 +6913,13 @@
     </row>
     <row r="8" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="125" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" s="125"/>
       <c r="E8" s="125"/>
@@ -6927,13 +6927,13 @@
     </row>
     <row r="9" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="125" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="126" t="s">
         <v>179</v>
-      </c>
-      <c r="C9" s="126" t="s">
-        <v>182</v>
       </c>
       <c r="D9" s="125"/>
       <c r="E9" s="125"/>
@@ -6941,13 +6941,13 @@
     </row>
     <row r="10" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" s="123"/>
       <c r="E10" s="123"/>
@@ -6955,13 +6955,13 @@
     </row>
     <row r="11" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11" s="125"/>
       <c r="E11" s="125"/>
@@ -6969,13 +6969,13 @@
     </row>
     <row r="12" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
@@ -6983,13 +6983,13 @@
     </row>
     <row r="13" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="126" t="s">
         <v>179</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>182</v>
       </c>
       <c r="D13" s="125"/>
       <c r="E13" s="125"/>
@@ -6997,13 +6997,13 @@
     </row>
     <row r="14" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="123" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C14" s="124" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" s="123"/>
       <c r="E14" s="123"/>
@@ -7011,13 +7011,13 @@
     </row>
     <row r="15" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="125" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
@@ -7025,13 +7025,13 @@
     </row>
     <row r="16" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" s="125" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
@@ -7039,13 +7039,13 @@
     </row>
     <row r="17" spans="1:6" s="97" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B17" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="126" t="s">
         <v>179</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>182</v>
       </c>
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
@@ -7053,13 +7053,13 @@
     </row>
     <row r="18" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="123" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="123"/>
       <c r="E18" s="123"/>
@@ -7067,13 +7067,13 @@
     </row>
     <row r="19" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
@@ -7081,13 +7081,13 @@
     </row>
     <row r="20" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="125" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
@@ -7095,13 +7095,13 @@
     </row>
     <row r="21" spans="1:6" s="97" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="125" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C21" s="126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
@@ -7109,13 +7109,13 @@
     </row>
     <row r="22" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="123" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B22" s="123" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="123"/>
       <c r="E22" s="123"/>
@@ -7123,13 +7123,13 @@
     </row>
     <row r="23" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="125" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
@@ -7137,13 +7137,13 @@
     </row>
     <row r="24" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="125" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B24" s="125" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C24" s="126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
@@ -7151,13 +7151,13 @@
     </row>
     <row r="25" spans="1:6" s="97" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="127" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25" s="127" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C25" s="128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="127"/>
       <c r="E25" s="127"/>
@@ -7201,90 +7201,90 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="93" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="89" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="89" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="89" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="89" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="89" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="89" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="89" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="89" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/tests/models/test_network__basic/input/model_simple_network.xlsx
+++ b/tests/models/test_network__basic/input/model_simple_network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sira/tests/models/test_network__basic/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\sira\tests\models\test_network__basic\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C693317-671A-344B-80D9-3932917B20D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4884970-5E4F-42A0-AC7D-45F9226D652C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="17440" tabRatio="937" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="937" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_meta" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,18 @@
     <definedName name="RESTORATION_TIME_UNIT">OFFSET(VALIDATION_TABLES!$C$2,0,0,COUNTA(VALIDATION_TABLES!$C$2:$C$201),1)</definedName>
     <definedName name="SYSTEM_CLASSES">OFFSET(VALIDATION_TABLES!$B$2,0,0,COUNTA(VALIDATION_TABLES!$B$2:$B$201),1)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -433,21 +444,12 @@
     <t>no</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
     <t>upper_limit</t>
   </si>
   <si>
     <t>lower_limit</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>recovery_function</t>
   </si>
   <si>
@@ -677,6 +679,15 @@
   </si>
   <si>
     <t>Rayleigh</t>
+  </si>
+  <si>
+    <t>ds_scale</t>
+  </si>
+  <si>
+    <t>ds_location</t>
+  </si>
+  <si>
+    <t>ds_shape</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1685,7 @@
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1807,11 +1818,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFEC7356"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1819,16 +1825,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEC7356"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEC7356"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2259,218 +2255,218 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" style="16" customWidth="1"/>
     <col min="3" max="3" width="83.6640625" style="16" customWidth="1"/>
     <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="64"/>
+    </row>
+    <row r="3" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="64"/>
+    </row>
+    <row r="4" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B4" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="64"/>
+    </row>
+    <row r="5" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="64"/>
-    </row>
-    <row r="3" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="64"/>
-    </row>
-    <row r="4" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="C5" s="64"/>
+    </row>
+    <row r="6" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="64"/>
+    </row>
+    <row r="7" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="64"/>
+    </row>
+    <row r="8" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="64"/>
-    </row>
-    <row r="5" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="B8" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="64"/>
+    </row>
+    <row r="9" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="64"/>
-    </row>
-    <row r="6" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="64"/>
-    </row>
-    <row r="7" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="64"/>
-    </row>
-    <row r="8" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="64"/>
-    </row>
-    <row r="9" spans="1:3" s="65" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
-        <v>150</v>
-      </c>
       <c r="B9" s="63" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="64"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2502,437 +2498,437 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="50.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="89" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="89" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="88" t="s">
         <v>134</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>137</v>
       </c>
       <c r="C1" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
     </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
     </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90"/>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
     </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90"/>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90"/>
     </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90"/>
     </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90"/>
     </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
     </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="90"/>
       <c r="C13" s="90"/>
     </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="90"/>
       <c r="C14" s="90"/>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="90"/>
       <c r="B15" s="90"/>
       <c r="C15" s="90"/>
     </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
     </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="90"/>
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
     </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
       <c r="B20" s="90"/>
       <c r="C20" s="90"/>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="90"/>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="90"/>
       <c r="B22" s="90"/>
       <c r="C22" s="90"/>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="90"/>
       <c r="C23" s="90"/>
     </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="90"/>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
     </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="90"/>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
     </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="90"/>
       <c r="B26" s="90"/>
       <c r="C26" s="90"/>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="90"/>
       <c r="B27" s="90"/>
       <c r="C27" s="90"/>
     </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="90"/>
       <c r="C29" s="90"/>
     </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
     </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="90"/>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
     </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
     </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
     </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="90"/>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
     </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="90"/>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
     </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="90"/>
       <c r="B38" s="90"/>
       <c r="C38" s="90"/>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="90"/>
       <c r="B39" s="90"/>
       <c r="C39" s="90"/>
     </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="90"/>
       <c r="B40" s="90"/>
       <c r="C40" s="90"/>
     </row>
-    <row r="41" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="90"/>
       <c r="C41" s="90"/>
     </row>
-    <row r="42" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="90"/>
       <c r="B42" s="90"/>
       <c r="C42" s="90"/>
     </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="90"/>
       <c r="B43" s="90"/>
       <c r="C43" s="90"/>
     </row>
-    <row r="44" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="90"/>
       <c r="B44" s="90"/>
       <c r="C44" s="90"/>
     </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
       <c r="B45" s="90"/>
       <c r="C45" s="90"/>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
       <c r="B46" s="90"/>
       <c r="C46" s="90"/>
     </row>
-    <row r="47" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="90"/>
       <c r="B47" s="90"/>
       <c r="C47" s="90"/>
     </row>
-    <row r="48" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="90"/>
       <c r="B48" s="90"/>
       <c r="C48" s="90"/>
     </row>
-    <row r="49" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="90"/>
       <c r="B49" s="90"/>
       <c r="C49" s="90"/>
     </row>
-    <row r="50" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="90"/>
       <c r="B50" s="90"/>
       <c r="C50" s="90"/>
     </row>
-    <row r="51" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="B51" s="90"/>
       <c r="C51" s="90"/>
     </row>
-    <row r="52" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="90"/>
       <c r="C52" s="90"/>
     </row>
-    <row r="53" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="90"/>
       <c r="C53" s="90"/>
     </row>
-    <row r="54" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="90"/>
       <c r="C54" s="90"/>
     </row>
-    <row r="55" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="90"/>
       <c r="B55" s="90"/>
       <c r="C55" s="90"/>
     </row>
-    <row r="56" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
       <c r="B56" s="90"/>
       <c r="C56" s="90"/>
     </row>
-    <row r="57" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="90"/>
       <c r="C57" s="90"/>
     </row>
-    <row r="58" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="90"/>
       <c r="C58" s="90"/>
     </row>
-    <row r="59" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="90"/>
       <c r="C59" s="90"/>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="90"/>
       <c r="C60" s="90"/>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="90"/>
       <c r="C61" s="90"/>
     </row>
-    <row r="62" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="90"/>
       <c r="C62" s="90"/>
     </row>
-    <row r="63" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
       <c r="B63" s="90"/>
       <c r="C63" s="90"/>
     </row>
-    <row r="64" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="90"/>
       <c r="B64" s="90"/>
       <c r="C64" s="90"/>
     </row>
-    <row r="65" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="B65" s="90"/>
       <c r="C65" s="90"/>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="90"/>
       <c r="B66" s="90"/>
       <c r="C66" s="90"/>
     </row>
-    <row r="67" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="90"/>
       <c r="B67" s="90"/>
       <c r="C67" s="90"/>
     </row>
-    <row r="68" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="B68" s="90"/>
       <c r="C68" s="90"/>
     </row>
-    <row r="69" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
       <c r="B69" s="90"/>
       <c r="C69" s="90"/>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="B70" s="90"/>
       <c r="C70" s="90"/>
     </row>
-    <row r="71" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
       <c r="B71" s="90"/>
       <c r="C71" s="90"/>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
       <c r="B72" s="90"/>
       <c r="C72" s="90"/>
     </row>
-    <row r="73" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="B73" s="90"/>
       <c r="C73" s="90"/>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="B74" s="90"/>
       <c r="C74" s="90"/>
     </row>
-    <row r="75" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="B75" s="90"/>
       <c r="C75" s="90"/>
     </row>
-    <row r="76" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="1:3" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2949,26 +2945,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="118.1640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="118.109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="57"/>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>33</v>
       </c>
@@ -2976,7 +2972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>35</v>
       </c>
@@ -2984,7 +2980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>37</v>
       </c>
@@ -2992,7 +2988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>32</v>
       </c>
@@ -3000,7 +2996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>57</v>
       </c>
@@ -3008,7 +3004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>40</v>
       </c>
@@ -3016,7 +3012,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>42</v>
       </c>
@@ -3024,7 +3020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>44</v>
       </c>
@@ -3032,7 +3028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59" t="s">
         <v>46</v>
       </c>
@@ -3040,7 +3036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="59" t="s">
         <v>29</v>
       </c>
@@ -3048,7 +3044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
         <v>49</v>
       </c>
@@ -3056,7 +3052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>51</v>
       </c>
@@ -3064,7 +3060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>53</v>
       </c>
@@ -3072,7 +3068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
         <v>55</v>
       </c>
@@ -3080,8 +3076,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -3095,15 +3091,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="19" customWidth="1"/>
-    <col min="5" max="17" width="10.83203125" style="19"/>
-    <col min="18" max="18" width="10.83203125" style="30"/>
-    <col min="19" max="16384" width="10.83203125" style="19"/>
+    <col min="1" max="4" width="8.77734375" style="19" customWidth="1"/>
+    <col min="5" max="17" width="10.77734375" style="19"/>
+    <col min="18" max="18" width="10.77734375" style="30"/>
+    <col min="19" max="16384" width="10.77734375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="20" customFormat="1" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>83</v>
       </c>
@@ -3143,7 +3139,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -3187,7 +3183,7 @@
       </c>
       <c r="R2" s="33"/>
     </row>
-    <row r="3" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -3231,7 +3227,7 @@
       </c>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>2016</v>
       </c>
@@ -3288,7 +3284,7 @@
         <v>-99.080000000000098</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>2017</v>
       </c>
@@ -3345,7 +3341,7 @@
         <v>-75.389999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>2017</v>
       </c>
@@ -3402,7 +3398,7 @@
         <v>-73.349999999999966</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>2017</v>
       </c>
@@ -3459,7 +3455,7 @@
         <v>-27.060000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>2017</v>
       </c>
@@ -3516,7 +3512,7 @@
         <v>-6.32000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>2017</v>
       </c>
@@ -3573,7 +3569,7 @@
         <v>-14.109999999999957</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E12" s="35">
         <f>E4/SUM(F4,I4,L4,O4)</f>
         <v>-0.81425170131793534</v>
@@ -3595,7 +3591,7 @@
         <v>0.11979527942858212</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" s="35">
         <f t="shared" ref="E13:E14" si="1">E5/SUM(F5,I5,L5,O5)</f>
         <v>-0.84413248428713206</v>
@@ -3617,7 +3613,7 @@
         <v>0.12874214356599406</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" s="35">
         <f t="shared" si="1"/>
         <v>-0.85653372973184427</v>
@@ -3639,7 +3635,7 @@
         <v>2.0321943395857377E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E15" s="35">
         <f>E7/SUM(F7,I7,O7)</f>
         <v>-0.87804366078925267</v>
@@ -3661,7 +3657,7 @@
         <v>0.21459773292784076</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E16" s="35">
         <f t="shared" ref="E16:E17" si="6">E8/SUM(F8,I8,O8)</f>
         <v>-0.90317820924186709</v>
@@ -3683,7 +3679,7 @@
         <v>0.33568057150146696</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="35">
         <f t="shared" si="6"/>
         <v>-0.87658503089951945</v>
@@ -3705,25 +3701,25 @@
         <v>0.20559570878138458</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="35">
         <f>E12/(E12+L12)</f>
         <v>1.0618276941130451</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="35">
         <f t="shared" ref="E21:E25" si="8">E13/(E13+L13)</f>
         <v>1.0237450478912793</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="35">
         <f t="shared" si="8"/>
         <v>1.1093041517845834</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="56">
         <f t="shared" si="8"/>
         <v>0.94515053945658933</v>
@@ -3734,7 +3730,7 @@
       </c>
       <c r="M23" s="35"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="56">
         <f t="shared" si="8"/>
         <v>0.91674789016997504</v>
@@ -3745,7 +3741,7 @@
       </c>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="56">
         <f t="shared" si="8"/>
         <v>0.90583977861349607</v>
@@ -3756,7 +3752,7 @@
       </c>
       <c r="M25" s="35"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="35">
         <f>AVERAGE(E23:E25)</f>
         <v>0.92257940274668682</v>
@@ -3826,15 +3822,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" style="16" customWidth="1"/>
     <col min="2" max="2" width="51" style="16" customWidth="1"/>
     <col min="3" max="3" width="83.6640625" style="16" customWidth="1"/>
     <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
@@ -3845,7 +3841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>66</v>
       </c>
@@ -3856,7 +3852,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
         <v>67</v>
       </c>
@@ -3867,7 +3863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>70</v>
       </c>
@@ -3878,16 +3874,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="69" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
         <v>74</v>
       </c>
@@ -3898,7 +3894,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="17" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="69" t="s">
         <v>75</v>
       </c>
@@ -3907,137 +3903,137 @@
       </c>
       <c r="C7" s="18"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4059,20 +4055,20 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="40" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="112" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="40" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="112" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="40" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="40" customWidth="1"/>
-    <col min="8" max="9" width="12.1640625" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="40"/>
+    <col min="7" max="7" width="17.109375" style="40" customWidth="1"/>
+    <col min="8" max="9" width="12.109375" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
@@ -4092,18 +4088,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="116" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H1" s="116" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I1" s="116" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="117" t="s">
         <v>61</v>
@@ -4115,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G2" s="107">
         <v>1</v>
@@ -4132,9 +4128,9 @@
       <c r="J2" s="70"/>
       <c r="K2" s="70"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="103" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" s="108" t="s">
         <v>30</v>
@@ -4149,7 +4145,7 @@
         <v>99</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G3" s="107">
         <v>1</v>
@@ -4163,15 +4159,15 @@
       <c r="J3" s="70"/>
       <c r="K3" s="70"/>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D4" s="105">
         <v>0.35</v>
@@ -4180,7 +4176,7 @@
         <v>98</v>
       </c>
       <c r="F4" s="104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G4" s="107">
         <v>1</v>
@@ -4194,15 +4190,15 @@
       <c r="J4" s="70"/>
       <c r="K4" s="70"/>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="104" t="s">
-        <v>159</v>
-      </c>
       <c r="C5" s="104" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D5" s="105">
         <v>0.35</v>
@@ -4211,7 +4207,7 @@
         <v>98</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" s="107">
         <v>1</v>
@@ -4225,15 +4221,15 @@
       <c r="J5" s="70"/>
       <c r="K5" s="70"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="118" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" s="104" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D6" s="105">
         <v>0.3</v>
@@ -4242,7 +4238,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G6" s="107">
         <v>1</v>
@@ -4258,32 +4254,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H6">
-    <cfRule type="cellIs" dxfId="24" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="149" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4308,14 +4304,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="37.6640625" style="6" customWidth="1"/>
     <col min="3" max="4" width="15.6640625" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="40"/>
+    <col min="5" max="16384" width="9.109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
@@ -4329,12 +4325,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="52">
         <v>1</v>
@@ -4343,12 +4339,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" s="52">
         <v>1</v>
@@ -4357,12 +4353,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C4" s="52">
         <v>1</v>
@@ -4371,12 +4367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" s="52">
         <v>1</v>
@@ -4385,949 +4381,949 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="52"/>
       <c r="D6" s="53"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="52"/>
       <c r="D7" s="53"/>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="101"/>
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="101"/>
       <c r="C9" s="52"/>
       <c r="D9" s="53"/>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="52"/>
       <c r="D10" s="53"/>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="52"/>
       <c r="D11" s="53"/>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="52"/>
       <c r="D12" s="53"/>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="C13" s="52"/>
       <c r="D13" s="53"/>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="52"/>
       <c r="D14" s="53"/>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="52"/>
       <c r="D15" s="53"/>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="52"/>
       <c r="D16" s="53"/>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="52"/>
       <c r="D17" s="53"/>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="C18" s="52"/>
       <c r="D18" s="53"/>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="52"/>
       <c r="D19" s="53"/>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="52"/>
       <c r="D20" s="53"/>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="52"/>
       <c r="D21" s="53"/>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="52"/>
       <c r="D22" s="53"/>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="C23" s="52"/>
       <c r="D23" s="53"/>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="52"/>
       <c r="D24" s="53"/>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="52"/>
       <c r="D25" s="53"/>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="52"/>
       <c r="D26" s="53"/>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="52"/>
       <c r="D27" s="53"/>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="C28" s="52"/>
       <c r="D28" s="53"/>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="52"/>
       <c r="D29" s="53"/>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="52"/>
       <c r="D30" s="53"/>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="52"/>
       <c r="D31" s="53"/>
     </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="52"/>
       <c r="D32" s="53"/>
     </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="C33" s="52"/>
       <c r="D33" s="53"/>
     </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="52"/>
       <c r="D34" s="53"/>
     </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
     </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="52"/>
       <c r="D36" s="53"/>
     </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53"/>
     </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="C38" s="52"/>
       <c r="D38" s="53"/>
     </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="52"/>
       <c r="D39" s="53"/>
     </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="52"/>
       <c r="D40" s="53"/>
     </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="52"/>
       <c r="D41" s="53"/>
     </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="52"/>
       <c r="D42" s="53"/>
     </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="C43" s="52"/>
       <c r="D43" s="53"/>
     </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="52"/>
       <c r="D44" s="53"/>
     </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="101"/>
       <c r="C45" s="52"/>
       <c r="D45" s="53"/>
     </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="101"/>
       <c r="C46" s="52"/>
       <c r="D46" s="53"/>
     </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="52"/>
       <c r="D47" s="53"/>
     </row>
-    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="52"/>
       <c r="D48" s="53"/>
     </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="52"/>
       <c r="D49" s="53"/>
     </row>
-    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="52"/>
       <c r="D50" s="53"/>
     </row>
-    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="C51" s="52"/>
       <c r="D51" s="53"/>
     </row>
-    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10"/>
       <c r="C52" s="52"/>
       <c r="D52" s="53"/>
     </row>
-    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="52"/>
       <c r="D53" s="53"/>
     </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="52"/>
       <c r="D54" s="53"/>
     </row>
-    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="52"/>
       <c r="D55" s="53"/>
     </row>
-    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="52"/>
       <c r="D56" s="53"/>
     </row>
-    <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="52"/>
       <c r="D57" s="53"/>
     </row>
-    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="52"/>
       <c r="D58" s="53"/>
     </row>
-    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8"/>
       <c r="C59" s="52"/>
       <c r="D59" s="53"/>
     </row>
-    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="C60" s="52"/>
       <c r="D60" s="53"/>
     </row>
-    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="C61" s="52"/>
       <c r="D61" s="53"/>
     </row>
-    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8"/>
       <c r="C62" s="52"/>
       <c r="D62" s="53"/>
     </row>
-    <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="52"/>
       <c r="D63" s="53"/>
     </row>
-    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="52"/>
       <c r="D64" s="53"/>
     </row>
-    <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="52"/>
       <c r="D65" s="53"/>
     </row>
-    <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="52"/>
       <c r="D66" s="53"/>
     </row>
-    <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="52"/>
       <c r="D67" s="53"/>
     </row>
-    <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="52"/>
       <c r="D68" s="53"/>
     </row>
-    <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8"/>
       <c r="C69" s="52"/>
       <c r="D69" s="53"/>
     </row>
-    <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="C70" s="52"/>
       <c r="D70" s="53"/>
     </row>
-    <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="C71" s="52"/>
       <c r="D71" s="53"/>
     </row>
-    <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="8"/>
       <c r="C72" s="52"/>
       <c r="D72" s="53"/>
     </row>
-    <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="52"/>
       <c r="D73" s="53"/>
     </row>
-    <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="52"/>
       <c r="D74" s="53"/>
     </row>
-    <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="52"/>
       <c r="D75" s="53"/>
     </row>
-    <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="52"/>
       <c r="D76" s="53"/>
     </row>
-    <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="52"/>
       <c r="D77" s="53"/>
     </row>
-    <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="52"/>
       <c r="D78" s="53"/>
     </row>
-    <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="10"/>
       <c r="C79" s="52"/>
       <c r="D79" s="53"/>
     </row>
-    <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="C80" s="52"/>
       <c r="D80" s="53"/>
     </row>
-    <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="C81" s="52"/>
       <c r="D81" s="53"/>
     </row>
-    <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="52"/>
       <c r="D82" s="53"/>
     </row>
-    <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="101"/>
       <c r="C83" s="52"/>
       <c r="D83" s="53"/>
     </row>
-    <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="C84" s="52"/>
       <c r="D84" s="53"/>
     </row>
-    <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="52"/>
       <c r="D85" s="53"/>
     </row>
-    <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="52"/>
       <c r="D86" s="53"/>
     </row>
-    <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="52"/>
       <c r="D87" s="53"/>
     </row>
-    <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="8"/>
       <c r="C88" s="52"/>
       <c r="D88" s="53"/>
     </row>
-    <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="C89" s="52"/>
       <c r="D89" s="53"/>
     </row>
-    <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="52"/>
       <c r="D90" s="53"/>
     </row>
-    <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="52"/>
       <c r="D91" s="53"/>
     </row>
-    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="52"/>
       <c r="D92" s="53"/>
     </row>
-    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="10"/>
       <c r="C93" s="52"/>
       <c r="D93" s="53"/>
     </row>
-    <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="C94" s="52"/>
       <c r="D94" s="53"/>
     </row>
-    <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="52"/>
       <c r="D95" s="53"/>
     </row>
-    <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="52"/>
       <c r="D96" s="53"/>
     </row>
-    <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="101"/>
       <c r="C97" s="52"/>
       <c r="D97" s="53"/>
     </row>
-    <row r="98" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="C98" s="52"/>
       <c r="D98" s="53"/>
     </row>
-    <row r="99" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="52"/>
       <c r="D99" s="53"/>
     </row>
-    <row r="100" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="52"/>
       <c r="D100" s="53"/>
     </row>
-    <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="52"/>
       <c r="D101" s="53"/>
     </row>
-    <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="8"/>
       <c r="C102" s="52"/>
       <c r="D102" s="53"/>
     </row>
-    <row r="103" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="C103" s="52"/>
       <c r="D103" s="53"/>
     </row>
-    <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="52"/>
       <c r="D104" s="53"/>
     </row>
-    <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="52"/>
       <c r="D105" s="53"/>
     </row>
-    <row r="106" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="52"/>
       <c r="D106" s="53"/>
     </row>
-    <row r="107" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="8"/>
       <c r="C107" s="52"/>
       <c r="D107" s="53"/>
     </row>
-    <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="C108" s="52"/>
       <c r="D108" s="53"/>
     </row>
-    <row r="109" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="52"/>
       <c r="D109" s="53"/>
     </row>
-    <row r="110" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="52"/>
       <c r="D110" s="53"/>
     </row>
-    <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="52"/>
       <c r="D111" s="53"/>
     </row>
-    <row r="112" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="10"/>
       <c r="C112" s="52"/>
       <c r="D112" s="53"/>
     </row>
-    <row r="113" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="C113" s="52"/>
       <c r="D113" s="53"/>
     </row>
-    <row r="114" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="52"/>
       <c r="D114" s="53"/>
     </row>
-    <row r="115" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="52"/>
       <c r="D115" s="53"/>
     </row>
-    <row r="116" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="52"/>
       <c r="D116" s="53"/>
     </row>
-    <row r="117" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="8"/>
       <c r="C117" s="52"/>
       <c r="D117" s="53"/>
     </row>
-    <row r="118" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="101"/>
       <c r="C118" s="52"/>
       <c r="D118" s="53"/>
     </row>
-    <row r="119" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="52"/>
       <c r="D119" s="53"/>
     </row>
-    <row r="120" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="8"/>
       <c r="C120" s="52"/>
       <c r="D120" s="53"/>
     </row>
-    <row r="121" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="C121" s="52"/>
       <c r="D121" s="53"/>
     </row>
-    <row r="122" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="52"/>
       <c r="D122" s="53"/>
     </row>
-    <row r="123" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="52"/>
       <c r="D123" s="53"/>
     </row>
-    <row r="124" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="52"/>
       <c r="D124" s="53"/>
     </row>
-    <row r="125" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="52"/>
       <c r="D125" s="53"/>
     </row>
-    <row r="126" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="C126" s="52"/>
       <c r="D126" s="53"/>
     </row>
-    <row r="127" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="101"/>
       <c r="C127" s="52"/>
       <c r="D127" s="53"/>
     </row>
-    <row r="128" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="C128" s="52"/>
       <c r="D128" s="53"/>
     </row>
-    <row r="129" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="52"/>
       <c r="D129" s="53"/>
     </row>
-    <row r="130" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="52"/>
       <c r="D130" s="53"/>
     </row>
-    <row r="131" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="52"/>
       <c r="D131" s="53"/>
     </row>
-    <row r="132" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="8"/>
       <c r="C132" s="52"/>
       <c r="D132" s="53"/>
     </row>
-    <row r="133" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="C133" s="52"/>
       <c r="D133" s="53"/>
     </row>
-    <row r="134" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="52"/>
       <c r="D134" s="53"/>
     </row>
-    <row r="135" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="52"/>
       <c r="D135" s="53"/>
     </row>
-    <row r="136" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="52"/>
       <c r="D136" s="53"/>
     </row>
-    <row r="137" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="10"/>
       <c r="C137" s="52"/>
       <c r="D137" s="53"/>
     </row>
-    <row r="138" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="C138" s="52"/>
       <c r="D138" s="53"/>
     </row>
-    <row r="139" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="52"/>
       <c r="D139" s="53"/>
     </row>
-    <row r="140" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="52"/>
       <c r="D140" s="53"/>
     </row>
-    <row r="141" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="101"/>
       <c r="C141" s="52"/>
       <c r="D141" s="53"/>
     </row>
-    <row r="142" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
       <c r="C142" s="52"/>
       <c r="D142" s="53"/>
     </row>
-    <row r="143" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="52"/>
       <c r="D143" s="53"/>
     </row>
-    <row r="144" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="52"/>
       <c r="D144" s="53"/>
     </row>
-    <row r="145" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="52"/>
       <c r="D145" s="53"/>
     </row>
-    <row r="146" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="8"/>
       <c r="C146" s="52"/>
       <c r="D146" s="53"/>
     </row>
-    <row r="147" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="C147" s="52"/>
       <c r="D147" s="53"/>
     </row>
-    <row r="148" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="52"/>
       <c r="D148" s="53"/>
     </row>
-    <row r="149" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="52"/>
       <c r="D149" s="53"/>
     </row>
-    <row r="150" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="52"/>
       <c r="D150" s="53"/>
     </row>
-    <row r="151" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="8"/>
       <c r="C151" s="52"/>
       <c r="D151" s="53"/>
     </row>
-    <row r="152" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="C152" s="52"/>
       <c r="D152" s="53"/>
     </row>
-    <row r="153" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="52"/>
       <c r="D153" s="53"/>
     </row>
-    <row r="154" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="52"/>
       <c r="D154" s="53"/>
     </row>
-    <row r="155" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="52"/>
       <c r="D155" s="53"/>
     </row>
-    <row r="156" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="10"/>
       <c r="C156" s="52"/>
       <c r="D156" s="53"/>
     </row>
-    <row r="157" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="C157" s="52"/>
       <c r="D157" s="53"/>
     </row>
-    <row r="158" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="52"/>
       <c r="D158" s="53"/>
     </row>
-    <row r="159" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="52"/>
       <c r="D159" s="53"/>
     </row>
-    <row r="160" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="52"/>
       <c r="D160" s="53"/>
     </row>
-    <row r="161" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="8"/>
       <c r="C161" s="52"/>
       <c r="D161" s="53"/>
     </row>
-    <row r="162" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="8"/>
       <c r="C162" s="52"/>
       <c r="D162" s="53"/>
     </row>
-    <row r="163" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="52"/>
       <c r="D163" s="53"/>
     </row>
-    <row r="164" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="52"/>
       <c r="D164" s="53"/>
     </row>
-    <row r="165" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="111"/>
       <c r="B165" s="101"/>
       <c r="C165" s="52"/>
       <c r="D165" s="53"/>
     </row>
-    <row r="166" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="C166" s="52"/>
       <c r="D166" s="53"/>
     </row>
-    <row r="167" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="52"/>
       <c r="D167" s="53"/>
     </row>
-    <row r="168" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="52"/>
       <c r="D168" s="53"/>
     </row>
-    <row r="169" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="52"/>
       <c r="D169" s="53"/>
     </row>
-    <row r="170" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="8"/>
       <c r="C170" s="52"/>
       <c r="D170" s="53"/>
     </row>
-    <row r="171" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
       <c r="C171" s="52"/>
       <c r="D171" s="53"/>
     </row>
-    <row r="172" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="52"/>
       <c r="D172" s="53"/>
     </row>
-    <row r="173" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="52"/>
       <c r="D173" s="53"/>
     </row>
-    <row r="174" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="52"/>
       <c r="D174" s="53"/>
     </row>
-    <row r="175" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="10"/>
       <c r="C175" s="52"/>
       <c r="D175" s="53"/>
     </row>
-    <row r="176" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
       <c r="C176" s="52"/>
       <c r="D176" s="53"/>
     </row>
-    <row r="177" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="52"/>
       <c r="D177" s="53"/>
     </row>
-    <row r="178" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
       <c r="C178" s="52"/>
       <c r="D178" s="53"/>
     </row>
-    <row r="179" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="101"/>
       <c r="C179" s="52"/>
       <c r="D179" s="53"/>
     </row>
-    <row r="180" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
       <c r="C180" s="52"/>
       <c r="D180" s="53"/>
     </row>
-    <row r="181" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="52"/>
       <c r="D181" s="53"/>
     </row>
-    <row r="182" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="52"/>
       <c r="D182" s="53"/>
     </row>
-    <row r="183" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="52"/>
       <c r="D183" s="53"/>
     </row>
-    <row r="184" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="8"/>
       <c r="C184" s="52"/>
       <c r="D184" s="53"/>
     </row>
-    <row r="185" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="C185" s="52"/>
       <c r="D185" s="53"/>
     </row>
-    <row r="186" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="52"/>
       <c r="D186" s="53"/>
     </row>
-    <row r="187" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="52"/>
       <c r="D187" s="53"/>
     </row>
-    <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="52"/>
       <c r="D188" s="53"/>
     </row>
-    <row r="189" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="8"/>
       <c r="C189" s="52"/>
       <c r="D189" s="53"/>
     </row>
-    <row r="190" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8"/>
       <c r="C190" s="52"/>
       <c r="D190" s="53"/>
     </row>
-    <row r="191" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="52"/>
       <c r="D191" s="53"/>
     </row>
-    <row r="192" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="52"/>
       <c r="D192" s="53"/>
     </row>
-    <row r="193" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="52"/>
       <c r="D193" s="53"/>
     </row>
-    <row r="194" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="10"/>
       <c r="C194" s="52"/>
       <c r="D194" s="53"/>
     </row>
-    <row r="195" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="C195" s="52"/>
       <c r="D195" s="53"/>
     </row>
-    <row r="196" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="52"/>
       <c r="D196" s="53"/>
     </row>
-    <row r="197" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C197" s="52"/>
       <c r="D197" s="53"/>
     </row>
-    <row r="198" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="52"/>
       <c r="D198" s="53"/>
     </row>
-    <row r="199" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="8"/>
       <c r="C199" s="52"/>
       <c r="D199" s="53"/>
     </row>
-    <row r="200" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
       <c r="C200" s="52"/>
       <c r="D200" s="53"/>
     </row>
-    <row r="201" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="52"/>
       <c r="D201" s="53"/>
     </row>
-    <row r="202" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="52"/>
       <c r="D202" s="53"/>
     </row>
-    <row r="203" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="101"/>
       <c r="C203" s="52"/>
       <c r="D203" s="53"/>
     </row>
-    <row r="204" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C204" s="52"/>
       <c r="D204" s="53"/>
     </row>
-    <row r="205" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="102"/>
       <c r="C205" s="52"/>
       <c r="D205" s="53"/>
     </row>
-    <row r="206" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="102"/>
       <c r="C206" s="52"/>
       <c r="D206" s="53"/>
     </row>
-    <row r="207" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="110"/>
       <c r="C207" s="52"/>
       <c r="D207" s="53"/>
     </row>
-    <row r="208" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="110"/>
       <c r="C208" s="52"/>
       <c r="D208" s="53"/>
     </row>
-    <row r="209" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="110"/>
       <c r="C209" s="52"/>
       <c r="D209" s="53"/>
     </row>
-    <row r="210" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="110"/>
       <c r="C210" s="52"/>
       <c r="D210" s="53"/>
     </row>
-    <row r="211" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C211" s="52"/>
       <c r="D211" s="53"/>
     </row>
-    <row r="212" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="110"/>
       <c r="C212" s="52"/>
       <c r="D212" s="53"/>
     </row>
-    <row r="213" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="110"/>
       <c r="C213" s="52"/>
       <c r="D213" s="53"/>
     </row>
-    <row r="214" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="110"/>
       <c r="C214" s="52"/>
       <c r="D214" s="53"/>
     </row>
-    <row r="215" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="102"/>
       <c r="C215" s="52"/>
       <c r="D215" s="53"/>
     </row>
-    <row r="216" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="110"/>
       <c r="C216" s="52"/>
       <c r="D216" s="53"/>
     </row>
-    <row r="217" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="110"/>
       <c r="C217" s="52"/>
       <c r="D217" s="53"/>
@@ -5366,16 +5362,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="40" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="43" customWidth="1"/>
-    <col min="5" max="7" width="18.83203125" style="40" customWidth="1"/>
-    <col min="8" max="16384" width="12.5" style="40"/>
+    <col min="1" max="1" width="30.77734375" style="40" customWidth="1"/>
+    <col min="2" max="3" width="20.77734375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="43" customWidth="1"/>
+    <col min="5" max="7" width="18.77734375" style="40" customWidth="1"/>
+    <col min="8" max="16384" width="12.44140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>10</v>
       </c>
@@ -5389,9 +5385,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="109" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="50">
         <v>1000</v>
@@ -5400,31 +5396,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="109"/>
       <c r="B3" s="50"/>
       <c r="C3" s="45"/>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="109"/>
       <c r="B4" s="50"/>
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="42"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="42"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="42"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="42"/>
     </row>
   </sheetData>
@@ -5444,14 +5440,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.83203125" style="40" customWidth="1"/>
-    <col min="3" max="5" width="20.83203125" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="12.5" style="40"/>
+    <col min="1" max="2" width="30.77734375" style="40" customWidth="1"/>
+    <col min="3" max="5" width="20.77734375" style="43" customWidth="1"/>
+    <col min="6" max="16384" width="12.44140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>14</v>
       </c>
@@ -5468,12 +5464,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" s="45">
         <v>500</v>
@@ -5485,49 +5481,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="110"/>
       <c r="B3" s="44"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="110"/>
       <c r="B4" s="47"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
       <c r="E4" s="46"/>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110"/>
       <c r="B5" s="47"/>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="110"/>
       <c r="B6" s="47"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="110"/>
       <c r="B7" s="47"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="46"/>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="110"/>
       <c r="B8" s="47"/>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="46"/>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="110"/>
       <c r="B9" s="47"/>
       <c r="C9" s="45"/>
@@ -5547,33 +5543,34 @@
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="61" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="61" customWidth="1"/>
     <col min="2" max="2" width="38" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="7" customWidth="1"/>
     <col min="5" max="5" width="18" style="7" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" style="61" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="61" customWidth="1"/>
     <col min="9" max="9" width="14" style="61" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="61" customWidth="1"/>
-    <col min="11" max="13" width="15.1640625" style="61" customWidth="1"/>
+    <col min="11" max="13" width="15.109375" style="61" customWidth="1"/>
     <col min="14" max="14" width="21.33203125" style="86" customWidth="1"/>
     <col min="15" max="16" width="16.33203125" style="61" customWidth="1"/>
-    <col min="17" max="17" width="23.5" style="7" customWidth="1"/>
+    <col min="17" max="17" width="23.44140625" style="7" customWidth="1"/>
     <col min="18" max="18" width="69" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="7"/>
+    <col min="19" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="76" t="s">
         <v>100</v>
       </c>
@@ -5590,13 +5587,13 @@
         <v>20</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="H1" s="78" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="I1" s="78" t="s">
         <v>21</v>
@@ -5608,19 +5605,19 @@
         <v>23</v>
       </c>
       <c r="L1" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="84" t="s">
-        <v>108</v>
-      </c>
       <c r="O1" s="82" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P1" s="82" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q1" s="80" t="s">
         <v>24</v>
@@ -5629,16 +5626,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="91">
         <f t="shared" ref="A2:A21" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>102</v>
@@ -5649,11 +5646,11 @@
       <c r="F2" s="72">
         <v>0.23</v>
       </c>
-      <c r="G2" s="87">
+      <c r="G2" s="72">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="87">
         <v>0</v>
-      </c>
-      <c r="H2" s="72">
-        <v>0.25</v>
       </c>
       <c r="I2" s="98">
         <v>0.06</v>
@@ -5662,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L2" s="74">
         <v>0.01</v>
@@ -5671,7 +5668,7 @@
         <v>0.95</v>
       </c>
       <c r="N2" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O2" s="99">
         <v>0</v>
@@ -5683,19 +5680,19 @@
         <v>2</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="91">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" s="121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>102</v>
@@ -5706,11 +5703,11 @@
       <c r="F3" s="72">
         <v>0.38</v>
       </c>
-      <c r="G3" s="87">
+      <c r="G3" s="72">
+        <v>0.35</v>
+      </c>
+      <c r="H3" s="87">
         <v>0</v>
-      </c>
-      <c r="H3" s="72">
-        <v>0.35</v>
       </c>
       <c r="I3" s="98">
         <v>0.3</v>
@@ -5719,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L3" s="74">
         <v>0.05</v>
@@ -5728,7 +5725,7 @@
         <v>0.75</v>
       </c>
       <c r="N3" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O3" s="99">
         <v>1</v>
@@ -5741,16 +5738,16 @@
       </c>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="91">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>102</v>
@@ -5761,11 +5758,11 @@
       <c r="F4" s="72">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G4" s="87">
+      <c r="G4" s="72">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="87">
         <v>0</v>
-      </c>
-      <c r="H4" s="72">
-        <v>0.4</v>
       </c>
       <c r="I4" s="98">
         <v>0.75</v>
@@ -5774,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L4" s="74">
         <v>0.3</v>
@@ -5783,7 +5780,7 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O4" s="99">
         <v>2</v>
@@ -5796,16 +5793,16 @@
       </c>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C5" s="122" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>102</v>
@@ -5816,11 +5813,11 @@
       <c r="F5" s="72">
         <v>0.8</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="72">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="87">
         <v>0</v>
-      </c>
-      <c r="H5" s="72">
-        <v>0.4</v>
       </c>
       <c r="I5" s="98">
         <v>1</v>
@@ -5829,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L5" s="74">
         <v>1</v>
@@ -5838,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O5" s="99">
         <v>5</v>
@@ -5851,16 +5848,16 @@
       </c>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="91">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="120" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>102</v>
@@ -5871,11 +5868,11 @@
       <c r="F6" s="72">
         <v>0.15</v>
       </c>
-      <c r="G6" s="87">
+      <c r="G6" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="87">
         <v>0</v>
-      </c>
-      <c r="H6" s="72">
-        <v>0.5</v>
       </c>
       <c r="I6" s="98">
         <v>0.2</v>
@@ -5884,7 +5881,7 @@
         <v>0.95</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L6" s="74">
         <v>0.01</v>
@@ -5893,7 +5890,7 @@
         <v>0.95</v>
       </c>
       <c r="N6" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O6" s="99">
         <v>0</v>
@@ -5905,19 +5902,19 @@
         <v>1</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="91">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>102</v>
@@ -5928,11 +5925,11 @@
       <c r="F7" s="72">
         <v>0.7</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G7" s="72">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="87">
         <v>0</v>
-      </c>
-      <c r="H7" s="72">
-        <v>0.7</v>
       </c>
       <c r="I7" s="98">
         <v>0.5</v>
@@ -5941,7 +5938,7 @@
         <v>0.75</v>
       </c>
       <c r="K7" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L7" s="74">
         <v>0.05</v>
@@ -5950,7 +5947,7 @@
         <v>0.75</v>
       </c>
       <c r="N7" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O7" s="99">
         <v>1</v>
@@ -5963,16 +5960,16 @@
       </c>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="91">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" s="121" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>102</v>
@@ -5983,11 +5980,11 @@
       <c r="F8" s="72">
         <v>101</v>
       </c>
-      <c r="G8" s="87">
+      <c r="G8" s="72">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H8" s="87">
         <v>0</v>
-      </c>
-      <c r="H8" s="72">
-        <v>1.1100000000000001</v>
       </c>
       <c r="I8" s="98">
         <v>0.8</v>
@@ -5996,7 +5993,7 @@
         <v>0.3</v>
       </c>
       <c r="K8" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L8" s="74">
         <v>1</v>
@@ -6005,7 +6002,7 @@
         <v>0.3</v>
       </c>
       <c r="N8" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O8" s="99">
         <v>2</v>
@@ -6018,16 +6015,16 @@
       </c>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="91">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>102</v>
@@ -6038,11 +6035,11 @@
       <c r="F9" s="72">
         <v>101</v>
       </c>
-      <c r="G9" s="87">
+      <c r="G9" s="72">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H9" s="87">
         <v>0</v>
-      </c>
-      <c r="H9" s="72">
-        <v>1.1100000000000001</v>
       </c>
       <c r="I9" s="98">
         <v>0.95</v>
@@ -6051,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L9" s="74">
         <v>1</v>
@@ -6060,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O9" s="99">
         <v>2</v>
@@ -6073,7 +6070,7 @@
       </c>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6082,7 +6079,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="120" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>102</v>
@@ -6093,11 +6090,11 @@
       <c r="F10" s="75">
         <v>101</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="75">
+        <v>1</v>
+      </c>
+      <c r="H10" s="87">
         <v>0</v>
-      </c>
-      <c r="H10" s="75">
-        <v>1</v>
       </c>
       <c r="I10" s="73">
         <v>0.01</v>
@@ -6106,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L10" s="74">
         <v>0</v>
@@ -6115,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O10" s="99">
         <v>0</v>
@@ -6130,7 +6127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="91">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6139,7 +6136,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>102</v>
@@ -6150,11 +6147,11 @@
       <c r="F11" s="75">
         <v>101</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="75">
+        <v>1</v>
+      </c>
+      <c r="H11" s="87">
         <v>0</v>
-      </c>
-      <c r="H11" s="75">
-        <v>1</v>
       </c>
       <c r="I11" s="73">
         <v>0.01</v>
@@ -6163,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L11" s="74">
         <v>0</v>
@@ -6172,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O11" s="99">
         <v>0</v>
@@ -6185,7 +6182,7 @@
       </c>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="91">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6194,7 +6191,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="121" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>102</v>
@@ -6205,11 +6202,11 @@
       <c r="F12" s="75">
         <v>101</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="75">
+        <v>1</v>
+      </c>
+      <c r="H12" s="87">
         <v>0</v>
-      </c>
-      <c r="H12" s="75">
-        <v>1</v>
       </c>
       <c r="I12" s="73">
         <v>0.01</v>
@@ -6218,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L12" s="74">
         <v>0</v>
@@ -6227,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O12" s="99">
         <v>0</v>
@@ -6240,7 +6237,7 @@
       </c>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="91">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6249,7 +6246,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="122" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>102</v>
@@ -6260,11 +6257,11 @@
       <c r="F13" s="75">
         <v>101</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="75">
+        <v>1</v>
+      </c>
+      <c r="H13" s="87">
         <v>0</v>
-      </c>
-      <c r="H13" s="75">
-        <v>1</v>
       </c>
       <c r="I13" s="73">
         <v>0.01</v>
@@ -6273,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L13" s="74">
         <v>0</v>
@@ -6282,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O13" s="99">
         <v>0</v>
@@ -6295,7 +6292,7 @@
       </c>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="91">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6304,7 +6301,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>102</v>
@@ -6315,11 +6312,11 @@
       <c r="F14" s="75">
         <v>101</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="75">
+        <v>1</v>
+      </c>
+      <c r="H14" s="87">
         <v>0</v>
-      </c>
-      <c r="H14" s="75">
-        <v>1</v>
       </c>
       <c r="I14" s="73">
         <v>0.01</v>
@@ -6328,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L14" s="74">
         <v>0</v>
@@ -6337,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O14" s="99">
         <v>0</v>
@@ -6352,7 +6349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="91">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6361,7 +6358,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>102</v>
@@ -6372,11 +6369,11 @@
       <c r="F15" s="75">
         <v>101</v>
       </c>
-      <c r="G15" s="87">
+      <c r="G15" s="75">
+        <v>1</v>
+      </c>
+      <c r="H15" s="87">
         <v>0</v>
-      </c>
-      <c r="H15" s="75">
-        <v>1</v>
       </c>
       <c r="I15" s="73">
         <v>0.01</v>
@@ -6385,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L15" s="74">
         <v>0</v>
@@ -6394,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O15" s="99">
         <v>0</v>
@@ -6407,7 +6404,7 @@
       </c>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="91">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6416,7 +6413,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="121" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>102</v>
@@ -6427,11 +6424,11 @@
       <c r="F16" s="75">
         <v>101</v>
       </c>
-      <c r="G16" s="87">
+      <c r="G16" s="75">
+        <v>1</v>
+      </c>
+      <c r="H16" s="87">
         <v>0</v>
-      </c>
-      <c r="H16" s="75">
-        <v>1</v>
       </c>
       <c r="I16" s="73">
         <v>0.01</v>
@@ -6440,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L16" s="74">
         <v>0</v>
@@ -6449,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O16" s="99">
         <v>0</v>
@@ -6462,7 +6459,7 @@
       </c>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="91">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6471,7 +6468,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="122" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>102</v>
@@ -6482,11 +6479,11 @@
       <c r="F17" s="75">
         <v>101</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="75">
+        <v>1</v>
+      </c>
+      <c r="H17" s="87">
         <v>0</v>
-      </c>
-      <c r="H17" s="75">
-        <v>1</v>
       </c>
       <c r="I17" s="73">
         <v>0.01</v>
@@ -6495,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L17" s="74">
         <v>0</v>
@@ -6504,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O17" s="99">
         <v>0</v>
@@ -6517,7 +6514,7 @@
       </c>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="91">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6526,7 +6523,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>102</v>
@@ -6537,11 +6534,11 @@
       <c r="F18" s="75">
         <v>101</v>
       </c>
-      <c r="G18" s="87">
+      <c r="G18" s="75">
+        <v>1</v>
+      </c>
+      <c r="H18" s="87">
         <v>0</v>
-      </c>
-      <c r="H18" s="75">
-        <v>1</v>
       </c>
       <c r="I18" s="73">
         <v>0.01</v>
@@ -6550,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L18" s="74">
         <v>0</v>
@@ -6559,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O18" s="99">
         <v>0</v>
@@ -6574,7 +6571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="91">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6583,7 +6580,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>102</v>
@@ -6594,11 +6591,11 @@
       <c r="F19" s="75">
         <v>101</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="75">
+        <v>1</v>
+      </c>
+      <c r="H19" s="87">
         <v>0</v>
-      </c>
-      <c r="H19" s="75">
-        <v>1</v>
       </c>
       <c r="I19" s="73">
         <v>0.01</v>
@@ -6607,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L19" s="74">
         <v>0</v>
@@ -6616,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O19" s="99">
         <v>0</v>
@@ -6631,7 +6628,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="91">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6640,7 +6637,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="121" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>102</v>
@@ -6651,11 +6648,11 @@
       <c r="F20" s="75">
         <v>101</v>
       </c>
-      <c r="G20" s="87">
+      <c r="G20" s="75">
+        <v>1</v>
+      </c>
+      <c r="H20" s="87">
         <v>0</v>
-      </c>
-      <c r="H20" s="75">
-        <v>1</v>
       </c>
       <c r="I20" s="73">
         <v>0.01</v>
@@ -6664,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L20" s="74">
         <v>0</v>
@@ -6673,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O20" s="99">
         <v>0</v>
@@ -6688,7 +6685,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="91">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6697,7 +6694,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="122" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>102</v>
@@ -6708,11 +6705,11 @@
       <c r="F21" s="75">
         <v>101</v>
       </c>
-      <c r="G21" s="87">
+      <c r="G21" s="75">
+        <v>1</v>
+      </c>
+      <c r="H21" s="87">
         <v>0</v>
-      </c>
-      <c r="H21" s="75">
-        <v>1</v>
       </c>
       <c r="I21" s="73">
         <v>0.01</v>
@@ -6721,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L21" s="74">
         <v>0</v>
@@ -6730,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O21" s="99">
         <v>0</v>
@@ -6744,37 +6741,22 @@
       <c r="R21" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="B2:R4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:R4">
     <sortCondition ref="B2:B4"/>
   </sortState>
-  <conditionalFormatting sqref="F1:H20 F22:H1048576">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+  <conditionalFormatting sqref="F1:H1048576">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThanOrEqual">
       <formula>101</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:H20">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:H21">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThanOrEqual">
       <formula>101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:H21">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
-      <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6796,18 +6778,18 @@
       <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" style="96" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="96" customWidth="1"/>
-    <col min="3" max="3" width="74.1640625" style="96" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="96" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" style="96" customWidth="1"/>
+    <col min="4" max="4" width="48.77734375" style="96" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" style="96" customWidth="1"/>
     <col min="6" max="6" width="60.33203125" style="96" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="96"/>
+    <col min="7" max="16384" width="9.109375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
@@ -6818,245 +6800,245 @@
         <v>28</v>
       </c>
       <c r="D1" s="95" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E1" s="95" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F1" s="95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="123" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" s="123" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D2" s="123"/>
       <c r="E2" s="123"/>
       <c r="F2" s="123"/>
     </row>
-    <row r="3" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B3" s="125" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D3" s="125"/>
       <c r="E3" s="125"/>
       <c r="F3" s="125"/>
     </row>
-    <row r="4" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B4" s="125" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="126" t="s">
         <v>175</v>
-      </c>
-      <c r="C4" s="126" t="s">
-        <v>178</v>
       </c>
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
       <c r="F4" s="125"/>
     </row>
-    <row r="5" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="127" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D5" s="127"/>
       <c r="E5" s="127"/>
       <c r="F5" s="127"/>
     </row>
-    <row r="6" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="125" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D6" s="125"/>
       <c r="E6" s="125"/>
       <c r="F6" s="125"/>
     </row>
-    <row r="7" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="125" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C7" s="126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D7" s="125"/>
       <c r="E7" s="125"/>
       <c r="F7" s="125"/>
     </row>
-    <row r="8" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="125" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D8" s="125"/>
       <c r="E8" s="125"/>
       <c r="F8" s="125"/>
     </row>
-    <row r="9" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="125" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="126" t="s">
         <v>176</v>
-      </c>
-      <c r="C9" s="126" t="s">
-        <v>179</v>
       </c>
       <c r="D9" s="125"/>
       <c r="E9" s="125"/>
       <c r="F9" s="125"/>
     </row>
-    <row r="10" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="123" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D10" s="123"/>
       <c r="E10" s="123"/>
       <c r="F10" s="123"/>
     </row>
-    <row r="11" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D11" s="125"/>
       <c r="E11" s="125"/>
       <c r="F11" s="125"/>
     </row>
-    <row r="12" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="125" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="125" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="126" t="s">
         <v>176</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>179</v>
       </c>
       <c r="D13" s="125"/>
       <c r="E13" s="125"/>
       <c r="F13" s="125"/>
     </row>
-    <row r="14" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="123" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" s="124" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D14" s="123"/>
       <c r="E14" s="123"/>
       <c r="F14" s="123"/>
     </row>
-    <row r="15" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="125"/>
     </row>
-    <row r="16" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B16" s="125" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="125"/>
     </row>
-    <row r="17" spans="1:6" s="97" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="97" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B17" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="126" t="s">
         <v>176</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>179</v>
       </c>
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="125"/>
     </row>
-    <row r="18" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="123" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" s="124" t="s">
         <v>27</v>
@@ -7065,12 +7047,12 @@
       <c r="E18" s="123"/>
       <c r="F18" s="123"/>
     </row>
-    <row r="19" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="125" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C19" s="126" t="s">
         <v>27</v>
@@ -7079,12 +7061,12 @@
       <c r="E19" s="125"/>
       <c r="F19" s="125"/>
     </row>
-    <row r="20" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="125" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C20" s="126" t="s">
         <v>27</v>
@@ -7093,12 +7075,12 @@
       <c r="E20" s="125"/>
       <c r="F20" s="125"/>
     </row>
-    <row r="21" spans="1:6" s="97" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="97" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="125" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C21" s="126" t="s">
         <v>27</v>
@@ -7107,12 +7089,12 @@
       <c r="E21" s="125"/>
       <c r="F21" s="125"/>
     </row>
-    <row r="22" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B22" s="123" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C22" s="124" t="s">
         <v>27</v>
@@ -7121,12 +7103,12 @@
       <c r="E22" s="123"/>
       <c r="F22" s="123"/>
     </row>
-    <row r="23" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="125" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C23" s="126" t="s">
         <v>27</v>
@@ -7135,12 +7117,12 @@
       <c r="E23" s="125"/>
       <c r="F23" s="125"/>
     </row>
-    <row r="24" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="125" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B24" s="125" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C24" s="126" t="s">
         <v>27</v>
@@ -7149,12 +7131,12 @@
       <c r="E24" s="125"/>
       <c r="F24" s="125"/>
     </row>
-    <row r="25" spans="1:6" s="97" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="97" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="127" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B25" s="127" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C25" s="128" t="s">
         <v>27</v>
@@ -7192,103 +7174,103 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="30.83203125" style="19" customWidth="1"/>
+    <col min="1" max="4" width="30.77734375" style="19" customWidth="1"/>
     <col min="5" max="5" width="15" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="19"/>
+    <col min="6" max="16384" width="10.77734375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B1" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="93" t="s">
+      <c r="C3" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="89" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="89" t="s">
+      <c r="C4" s="89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C5" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="89" t="s">
+    </row>
+    <row r="6" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="89" t="s">
+    </row>
+    <row r="7" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="89" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="89" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="89" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="89" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="89" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="89" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/models/test_network__basic/input/model_simple_network.xlsx
+++ b/tests/models/test_network__basic/input/model_simple_network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\sira\tests\models\test_network__basic\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4884970-5E4F-42A0-AC7D-45F9226D652C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C206ED-8891-443F-B06F-8ADFDEBE8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="937" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_meta" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="RESTORATION_TIME_UNIT">OFFSET(VALIDATION_TABLES!$C$2,0,0,COUNTA(VALIDATION_TABLES!$C$2:$C$201),1)</definedName>
     <definedName name="SYSTEM_CLASSES">OFFSET(VALIDATION_TABLES!$B$2,0,0,COUNTA(VALIDATION_TABLES!$B$2:$B$201),1)</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -579,9 +579,6 @@
     <t>HAZARD_INTENSITY_MEASURE_UNIT</t>
   </si>
   <si>
-    <t>ElectricityTransmissionNetwork</t>
-  </si>
-  <si>
     <t>Basic Linear Network</t>
   </si>
   <si>
@@ -688,6 +685,9 @@
   </si>
   <si>
     <t>ds_shape</t>
+  </si>
+  <si>
+    <t>ElectricPowerNetwork</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1301,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1313,7 +1313,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1321,25 +1320,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1385,9 +1378,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1486,10 +1476,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,7 +1491,7 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1527,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1558,10 +1548,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1589,28 +1576,25 @@
     <xf numFmtId="164" fontId="13" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1637,13 +1621,13 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1661,10 +1645,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1685,27 +1669,7 @@
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1798,88 +1762,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFEC7356"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2251,225 +2135,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="83.6640625" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="46" style="13" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+    <row r="2" spans="1:3" s="61" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="60"/>
+    </row>
+    <row r="3" spans="1:3" s="61" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="60"/>
+    </row>
+    <row r="4" spans="1:3" s="61" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="64"/>
-    </row>
-    <row r="3" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="64"/>
-    </row>
-    <row r="4" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="64"/>
-    </row>
-    <row r="5" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+      <c r="C4" s="60"/>
+    </row>
+    <row r="5" spans="1:3" s="61" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="64"/>
-    </row>
-    <row r="6" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="B5" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="60"/>
+    </row>
+    <row r="6" spans="1:3" s="61" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="64"/>
-    </row>
-    <row r="7" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="C6" s="60"/>
+    </row>
+    <row r="7" spans="1:3" s="61" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="64"/>
-    </row>
-    <row r="8" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="C7" s="60"/>
+    </row>
+    <row r="8" spans="1:3" s="61" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="64"/>
-    </row>
-    <row r="9" spans="1:3" s="65" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="C8" s="60"/>
+    </row>
+    <row r="9" spans="1:3" s="61" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="60"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2506,429 +2390,429 @@
     <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="89" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:3" s="85" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="84" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+    </row>
+    <row r="3" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+    </row>
+    <row r="4" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+    </row>
+    <row r="7" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+    </row>
+    <row r="8" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+    </row>
+    <row r="9" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+    </row>
+    <row r="11" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+    </row>
+    <row r="12" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-    </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-    </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-    </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-    </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-    </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-    </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-    </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-    </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-    </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-    </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-    </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-    </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-    </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-    </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-    </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-    </row>
-    <row r="41" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-    </row>
-    <row r="42" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-    </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-    </row>
-    <row r="44" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-    </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-    </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-    </row>
-    <row r="47" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-    </row>
-    <row r="48" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-    </row>
-    <row r="49" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-    </row>
-    <row r="50" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-    </row>
-    <row r="51" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-    </row>
-    <row r="52" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-    </row>
-    <row r="53" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
-    </row>
-    <row r="54" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-    </row>
-    <row r="55" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-    </row>
-    <row r="56" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
-    </row>
-    <row r="57" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-    </row>
-    <row r="58" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-    </row>
-    <row r="59" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="90"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
-    </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="90"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
-    </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="90"/>
-    </row>
-    <row r="62" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="90"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-    </row>
-    <row r="63" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="90"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
-    </row>
-    <row r="64" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="90"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
-    </row>
-    <row r="65" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-    </row>
-    <row r="66" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="90"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
-    </row>
-    <row r="67" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="90"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
-    </row>
-    <row r="68" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
-    </row>
-    <row r="69" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="90"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="90"/>
-    </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="90"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="90"/>
-    </row>
-    <row r="71" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="90"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="90"/>
-    </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="90"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="90"/>
-    </row>
-    <row r="73" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="90"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="90"/>
-    </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="90"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
-    </row>
-    <row r="75" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="90"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
-    </row>
-    <row r="76" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:3" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="5" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+    </row>
+    <row r="13" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+    </row>
+    <row r="17" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+    </row>
+    <row r="18" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+    </row>
+    <row r="19" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+    </row>
+    <row r="20" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+    </row>
+    <row r="21" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+    </row>
+    <row r="22" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+    </row>
+    <row r="23" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+    </row>
+    <row r="24" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+    </row>
+    <row r="25" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+    </row>
+    <row r="26" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+    </row>
+    <row r="27" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+    </row>
+    <row r="28" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+    </row>
+    <row r="29" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+    </row>
+    <row r="30" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+    </row>
+    <row r="31" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+    </row>
+    <row r="32" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+    </row>
+    <row r="34" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+    </row>
+    <row r="35" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+    </row>
+    <row r="37" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+    </row>
+    <row r="38" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+    </row>
+    <row r="39" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+    </row>
+    <row r="41" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+    </row>
+    <row r="42" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+    </row>
+    <row r="43" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+    </row>
+    <row r="44" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+    </row>
+    <row r="45" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+    </row>
+    <row r="46" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+    </row>
+    <row r="47" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+    </row>
+    <row r="48" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+    </row>
+    <row r="49" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+    </row>
+    <row r="50" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+    </row>
+    <row r="51" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+    </row>
+    <row r="52" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+    </row>
+    <row r="53" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+    </row>
+    <row r="54" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+    </row>
+    <row r="55" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+    </row>
+    <row r="56" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+    </row>
+    <row r="57" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+    </row>
+    <row r="58" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+    </row>
+    <row r="59" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+    </row>
+    <row r="60" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+    </row>
+    <row r="61" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+    </row>
+    <row r="62" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+    </row>
+    <row r="63" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+    </row>
+    <row r="64" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+    </row>
+    <row r="65" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+    </row>
+    <row r="66" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="85"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+    </row>
+    <row r="67" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+    </row>
+    <row r="68" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+    </row>
+    <row r="69" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+    </row>
+    <row r="70" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+    </row>
+    <row r="71" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="85"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+    </row>
+    <row r="72" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="85"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+    </row>
+    <row r="73" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="85"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+    </row>
+    <row r="74" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="85"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+    </row>
+    <row r="75" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="85"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+    </row>
+    <row r="76" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2939,7 +2823,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2953,19 +2837,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2973,7 +2857,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="55" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2981,7 +2865,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2989,7 +2873,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2997,7 +2881,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="55" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3005,7 +2889,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="55" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3013,7 +2897,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="55" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3021,7 +2905,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="55" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3029,7 +2913,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="55" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3037,7 +2921,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="55" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3045,7 +2929,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="55" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -3053,7 +2937,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3061,7 +2945,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3069,17 +2953,14 @@
       </c>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="55" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-    </row>
+    <row r="17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3093,671 +2974,671 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.77734375" style="19" customWidth="1"/>
-    <col min="5" max="17" width="10.77734375" style="19"/>
-    <col min="18" max="18" width="10.77734375" style="30"/>
-    <col min="19" max="16384" width="10.77734375" style="19"/>
+    <col min="1" max="4" width="8.77734375" style="16" customWidth="1"/>
+    <col min="5" max="17" width="10.77734375" style="16"/>
+    <col min="18" max="18" width="10.77734375" style="27"/>
+    <col min="19" max="16384" width="10.77734375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:18" s="17" customFormat="1" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="129" t="s">
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="129" t="s">
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="129" t="s">
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="32" t="s">
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="29" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="33"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="36" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="34"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="A4" s="22">
         <v>2016</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>12</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="22">
         <v>21</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="22">
         <v>1600</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="33">
         <v>434.33</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="25">
         <v>-247.44</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="23">
         <v>-40.67</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="23">
         <v>427</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="25">
         <v>-196.78</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="23">
         <v>-22.56</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="23">
         <v>358</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="25">
         <v>-25.29</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="23">
         <v>-9.4</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="23">
         <v>32</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="25">
         <v>-63.9</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="23">
         <v>-72.61</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="23">
         <v>168.6</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="22">
         <f>E4+SUM(F4,I4,L4,O4)</f>
         <v>-99.080000000000098</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>2017</v>
       </c>
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
         <v>4</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="22">
         <v>1655</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="33">
         <v>408.29</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <v>-236.99</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="23">
         <v>-38</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="23">
         <v>413</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="25">
         <v>-174.95</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="23">
         <v>-23.91</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="23">
         <v>326</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="25">
         <v>-9.4700000000000006</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="24">
         <v>2.68</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="23">
         <v>26</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="25">
         <v>-62.27</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="23">
         <v>-75.930000000000007</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="23">
         <v>170</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="22">
         <f t="shared" ref="R5:R9" si="0">E5+SUM(F5,I5,L5,O5)</f>
         <v>-75.389999999999986</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="22">
         <v>2017</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>3</v>
       </c>
-      <c r="C6" s="31">
-        <v>1</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
         <v>1750</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="33">
         <v>437.92</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <v>-244.27</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <v>-29.36</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="23">
         <v>421</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="25">
         <v>-213.46</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="24">
         <v>2.33</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="23">
         <v>386.9</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="25">
         <v>-43.15</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="24">
         <v>27.51</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="23">
         <v>90</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="25">
         <v>-10.39</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="23">
         <v>-72.989999999999995</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="23">
         <v>131.19999999999999</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="22">
         <f t="shared" si="0"/>
         <v>-73.349999999999966</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="A7" s="22">
         <v>2017</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>6</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="22">
         <v>26</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="22">
         <v>1835</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="33">
         <v>334.64</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <v>-146.72999999999999</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="23">
         <v>-35.549999999999997</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="23">
         <v>250</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="25">
         <v>-156.77000000000001</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="23">
         <v>-1.47</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="23">
         <v>286</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="25">
         <v>19.420000000000002</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="24">
         <v>17.78</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="23">
         <v>60</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="25">
         <v>-77.62</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="23">
         <v>-113.22</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="23">
         <v>238.8</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="22">
         <f t="shared" si="0"/>
         <v>-27.060000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>2017</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>7</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="22">
         <v>31</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="22">
         <v>1815</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="33">
         <v>385.63</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="25">
         <v>-173.11</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="23">
         <v>-39.369999999999997</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="23">
         <v>298.7</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="25">
         <v>-122.29</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="23">
         <v>-6.86</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="23">
         <v>225.7</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="25">
         <v>35.020000000000003</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="24">
         <v>9.44</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="23">
         <v>68</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="25">
         <v>-131.57</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="23">
         <v>-88.98</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="23">
         <v>274.7</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="22">
         <f t="shared" si="0"/>
         <v>-6.32000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="22">
         <v>2017</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="22">
         <v>8</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="22">
         <v>9</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="22">
         <v>1850</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="33">
         <v>382.98</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <v>-195.65</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="23">
         <v>-27.74</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="23">
         <v>328</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="25">
         <v>-159.61000000000001</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="24">
         <v>9.76</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="23">
         <v>299</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="25">
         <v>39.81</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="24">
         <v>57.88</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="23">
         <v>136</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="25">
         <v>-81.64</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="23">
         <v>-134.66999999999999</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="23">
         <v>274.89999999999998</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="22">
         <f t="shared" si="0"/>
         <v>-14.109999999999957</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E12" s="35">
+      <c r="E12" s="31">
         <f>E4/SUM(F4,I4,L4,O4)</f>
         <v>-0.81425170131793534</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="31">
         <f>F4/SUM(F4,I4,L4,O4)</f>
         <v>0.46388331677321376</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="31">
         <f>I4/SUM(F4,I4,L4,O4)</f>
         <v>0.36890946926379325</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="31">
         <f>L4/SUM(F4,I4,L4,O4)</f>
         <v>4.7411934534410671E-2</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="31">
         <f>O4/SUM(F4,I4,L4,O4)</f>
         <v>0.11979527942858212</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E13" s="35">
+      <c r="E13" s="31">
         <f t="shared" ref="E13:E14" si="1">E5/SUM(F5,I5,L5,O5)</f>
         <v>-0.84413248428713206</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="31">
         <f t="shared" ref="F13:F17" si="2">F5/SUM(F5,I5,L5,O5)</f>
         <v>0.48997270922924246</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="31">
         <f t="shared" ref="I13:I17" si="3">I5/SUM(F5,I5,L5,O5)</f>
         <v>0.36170608666887194</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="31">
         <f t="shared" ref="L13:L14" si="4">L5/SUM(F5,I5,L5,O5)</f>
         <v>1.95790605358915E-2</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="31">
         <f t="shared" ref="O13:O17" si="5">O5/SUM(F5,I5,L5,O5)</f>
         <v>0.12874214356599406</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E14" s="35">
+      <c r="E14" s="31">
         <f t="shared" si="1"/>
         <v>-0.85653372973184427</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="31">
         <f t="shared" si="2"/>
         <v>0.47777104074168253</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="31">
         <f t="shared" si="3"/>
         <v>0.41750933948794183</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="31">
         <f t="shared" si="4"/>
         <v>8.4397676374518352E-2</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="31">
         <f t="shared" si="5"/>
         <v>2.0321943395857377E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E15" s="35">
+      <c r="E15" s="31">
         <f>E7/SUM(F7,I7,O7)</f>
         <v>-0.87804366078925267</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="31">
         <f t="shared" si="2"/>
         <v>0.40566768039811996</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="31">
         <f t="shared" si="3"/>
         <v>0.43342549073818087</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="31">
         <f>L7/SUM(F7,I7,O7)</f>
         <v>-5.0955079764903446E-2</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="31">
         <f t="shared" si="5"/>
         <v>0.21459773292784076</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E16" s="35">
+      <c r="E16" s="31">
         <f t="shared" ref="E16:E17" si="6">E8/SUM(F8,I8,O8)</f>
         <v>-0.90317820924186709</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="31">
         <f t="shared" si="2"/>
         <v>0.44166347748437301</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="31">
         <f t="shared" si="3"/>
         <v>0.31200408215333586</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="31">
         <f t="shared" ref="L16:L17" si="7">L8/SUM(F8,I8,O8)</f>
         <v>-8.201981403845704E-2</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="31">
         <f t="shared" si="5"/>
         <v>0.33568057150146696</v>
       </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E17" s="35">
+      <c r="E17" s="31">
         <f t="shared" si="6"/>
         <v>-0.87658503089951945</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="31">
         <f t="shared" si="2"/>
         <v>0.49270946133118443</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="31">
         <f t="shared" si="3"/>
         <v>0.40194918028658494</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="31">
         <f t="shared" si="7"/>
         <v>-9.1119249256122692E-2</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17" s="31">
         <f t="shared" si="5"/>
         <v>0.20559570878138458</v>
       </c>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E20" s="35">
+      <c r="E20" s="31">
         <f>E12/(E12+L12)</f>
         <v>1.0618276941130451</v>
       </c>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E21" s="35">
+      <c r="E21" s="31">
         <f t="shared" ref="E21:E25" si="8">E13/(E13+L13)</f>
         <v>1.0237450478912793</v>
       </c>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E22" s="35">
+      <c r="E22" s="31">
         <f t="shared" si="8"/>
         <v>1.1093041517845834</v>
       </c>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="56">
+      <c r="E23" s="52">
         <f t="shared" si="8"/>
         <v>0.94515053945658933</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="52">
         <f>L15/(L15+E15)</f>
         <v>5.4849460543410729E-2</v>
       </c>
-      <c r="M23" s="35"/>
+      <c r="M23" s="31"/>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E24" s="56">
+      <c r="E24" s="52">
         <f t="shared" si="8"/>
         <v>0.91674789016997504</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="52">
         <f t="shared" ref="L24:L25" si="9">L16/(L16+E16)</f>
         <v>8.325210983002497E-2</v>
       </c>
-      <c r="M24" s="35"/>
+      <c r="M24" s="31"/>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E25" s="56">
+      <c r="E25" s="52">
         <f t="shared" si="8"/>
         <v>0.90583977861349607</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="52">
         <f t="shared" si="9"/>
         <v>9.4160221386503942E-2</v>
       </c>
-      <c r="M25" s="35"/>
+      <c r="M25" s="31"/>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E27" s="35">
+      <c r="E27" s="31">
         <f>AVERAGE(E23:E25)</f>
         <v>0.92257940274668682</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="31">
         <f>AVERAGE(L23:L25)</f>
         <v>7.7420597253313225E-2</v>
       </c>
@@ -3769,43 +3650,35 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F9">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="E4:F9">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L9">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O9">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3824,219 +3697,219 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="51" style="16" customWidth="1"/>
-    <col min="3" max="3" width="83.6640625" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="24.77734375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51" style="13" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:3" s="14" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+    <row r="4" spans="1:3" s="14" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+    <row r="5" spans="1:3" s="14" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" s="14" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:3" s="14" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4057,229 +3930,204 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="112" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="40" customWidth="1"/>
-    <col min="8" max="9" width="12.109375" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="40"/>
+    <col min="1" max="1" width="23.77734375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="106" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="36" customWidth="1"/>
+    <col min="8" max="9" width="12.109375" style="36" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="114" t="s">
+      <c r="B1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="110" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="117" t="s">
+      <c r="A2" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="105">
+      <c r="D2" s="99">
         <v>0</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="101">
+        <v>1</v>
+      </c>
+      <c r="H2" s="113">
+        <v>149.14865399999999</v>
+      </c>
+      <c r="I2" s="113">
+        <v>-35.319279000000002</v>
+      </c>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="99">
+        <v>0</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="107">
-        <v>1</v>
-      </c>
-      <c r="H2" s="119">
-        <v>149.14865399999999</v>
-      </c>
-      <c r="I2" s="119">
-        <v>-35.319279000000002</v>
-      </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="105">
-        <v>0</v>
-      </c>
-      <c r="E3" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="104" t="s">
+      <c r="G3" s="101">
+        <v>1</v>
+      </c>
+      <c r="H3" s="113">
+        <v>149.44621100000001</v>
+      </c>
+      <c r="I3" s="113">
+        <v>-35.255946000000002</v>
+      </c>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="107">
-        <v>1</v>
-      </c>
-      <c r="H3" s="119">
-        <v>149.44621100000001</v>
-      </c>
-      <c r="I3" s="119">
-        <v>-35.255946000000002</v>
-      </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="118" t="s">
+      <c r="D4" s="99">
+        <v>0.35</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="101">
+        <v>1</v>
+      </c>
+      <c r="H4" s="113">
+        <v>149.14936</v>
+      </c>
+      <c r="I4" s="113">
+        <v>-35.319344999999998</v>
+      </c>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="99">
+        <v>0.35</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="101">
+        <v>1</v>
+      </c>
+      <c r="H5" s="113">
+        <v>149.22764699999999</v>
+      </c>
+      <c r="I5" s="113">
+        <v>-35.342871000000002</v>
+      </c>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="105">
-        <v>0.35</v>
-      </c>
-      <c r="E4" s="104" t="s">
+      <c r="B6" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="99">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F6" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="107">
-        <v>1</v>
-      </c>
-      <c r="H4" s="119">
-        <v>149.14936</v>
-      </c>
-      <c r="I4" s="119">
-        <v>-35.319344999999998</v>
-      </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="118" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="105">
-        <v>0.35</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="107">
-        <v>1</v>
-      </c>
-      <c r="H5" s="119">
-        <v>149.22764699999999</v>
-      </c>
-      <c r="I5" s="119">
-        <v>-35.342871000000002</v>
-      </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="118" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="105">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="107">
-        <v>1</v>
-      </c>
-      <c r="H6" s="119">
+      <c r="G6" s="101">
+        <v>1</v>
+      </c>
+      <c r="H6" s="113">
         <v>149.446393</v>
       </c>
-      <c r="I6" s="119">
+      <c r="I6" s="113">
         <v>-35.255952999999998</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H4:H6">
-    <cfRule type="cellIs" dxfId="21" priority="149" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I6">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+  <conditionalFormatting sqref="H2:I6">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4306,1027 +4154,1024 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="37.6640625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="40"/>
+    <col min="1" max="2" width="37.6640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:4" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="48">
+        <v>1</v>
+      </c>
+      <c r="D2" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="52">
-        <v>1</v>
-      </c>
-      <c r="D2" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="C4" s="48">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="52">
-        <v>1</v>
-      </c>
-      <c r="D3" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="52">
-        <v>1</v>
-      </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="52">
-        <v>1</v>
-      </c>
-      <c r="D5" s="53">
+      <c r="B5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="48">
+        <v>1</v>
+      </c>
+      <c r="D5" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="101"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="101"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="A9" s="96"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
+      <c r="A13" s="7"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
+      <c r="A18" s="8"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
+      <c r="A23" s="7"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
+      <c r="A28" s="7"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
+      <c r="A33" s="7"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
+      <c r="A38" s="8"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="52"/>
-      <c r="D39" s="53"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
+      <c r="A43" s="7"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
     </row>
     <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="101"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
     </row>
     <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="101"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
+      <c r="A46" s="96"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
     </row>
     <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
     </row>
     <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
     </row>
     <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="8"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
     </row>
     <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
+      <c r="A51" s="8"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
     </row>
     <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="10"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
     </row>
     <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
     </row>
     <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="52"/>
-      <c r="D54" s="53"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49"/>
     </row>
     <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="52"/>
-      <c r="D55" s="53"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="49"/>
     </row>
     <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="52"/>
-      <c r="D56" s="53"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49"/>
     </row>
     <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="52"/>
-      <c r="D58" s="53"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
     </row>
     <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="8"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="53"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
     </row>
     <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="53"/>
+      <c r="A60" s="7"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="49"/>
     </row>
     <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="7"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="49"/>
     </row>
     <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="8"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="49"/>
     </row>
     <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="52"/>
-      <c r="D63" s="53"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="49"/>
     </row>
     <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="52"/>
-      <c r="D64" s="53"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="49"/>
     </row>
     <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="52"/>
-      <c r="D65" s="53"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="49"/>
     </row>
     <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="52"/>
-      <c r="D66" s="53"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="49"/>
     </row>
     <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="52"/>
-      <c r="D67" s="53"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="49"/>
     </row>
     <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="52"/>
-      <c r="D68" s="53"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="49"/>
     </row>
     <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="8"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="53"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="49"/>
     </row>
     <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="53"/>
+      <c r="A70" s="7"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
     </row>
     <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="53"/>
+      <c r="A71" s="7"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
     </row>
     <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="8"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="53"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="49"/>
     </row>
     <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="52"/>
-      <c r="D73" s="53"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="49"/>
     </row>
     <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="52"/>
-      <c r="D74" s="53"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="49"/>
     </row>
     <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="52"/>
-      <c r="D75" s="53"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="49"/>
     </row>
     <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="52"/>
-      <c r="D76" s="53"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="49"/>
     </row>
     <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="52"/>
-      <c r="D77" s="53"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="49"/>
     </row>
     <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="52"/>
-      <c r="D78" s="53"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="49"/>
     </row>
     <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="10"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="53"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="49"/>
     </row>
     <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="53"/>
+      <c r="A80" s="8"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="49"/>
     </row>
     <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="53"/>
+      <c r="A81" s="7"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="49"/>
     </row>
     <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="52"/>
-      <c r="D82" s="53"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="49"/>
     </row>
     <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="101"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="53"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="49"/>
     </row>
     <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="53"/>
+      <c r="A84" s="8"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="49"/>
     </row>
     <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="52"/>
-      <c r="D85" s="53"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="49"/>
     </row>
     <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="52"/>
-      <c r="D86" s="53"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="49"/>
     </row>
     <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="52"/>
-      <c r="D87" s="53"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="49"/>
     </row>
     <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="8"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="53"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="49"/>
     </row>
     <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53"/>
+      <c r="A89" s="7"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="49"/>
     </row>
     <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="52"/>
-      <c r="D90" s="53"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="49"/>
     </row>
     <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="52"/>
-      <c r="D91" s="53"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="49"/>
     </row>
     <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="52"/>
-      <c r="D92" s="53"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="49"/>
     </row>
     <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="10"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="53"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="49"/>
     </row>
     <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="8"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="53"/>
+      <c r="A94" s="7"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="49"/>
     </row>
     <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="52"/>
-      <c r="D95" s="53"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="49"/>
     </row>
     <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="52"/>
-      <c r="D96" s="53"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="49"/>
     </row>
     <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="101"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="53"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="49"/>
     </row>
     <row r="98" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="8"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="53"/>
+      <c r="A98" s="7"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="49"/>
     </row>
     <row r="99" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="52"/>
-      <c r="D99" s="53"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="49"/>
     </row>
     <row r="100" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="52"/>
-      <c r="D100" s="53"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="49"/>
     </row>
     <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="52"/>
-      <c r="D101" s="53"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="49"/>
     </row>
     <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="8"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="53"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="49"/>
     </row>
     <row r="103" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="8"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="53"/>
+      <c r="A103" s="7"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="49"/>
     </row>
     <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="52"/>
-      <c r="D104" s="53"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="49"/>
     </row>
     <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="52"/>
-      <c r="D105" s="53"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="49"/>
     </row>
     <row r="106" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="52"/>
-      <c r="D106" s="53"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="49"/>
     </row>
     <row r="107" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="8"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="53"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="49"/>
     </row>
     <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="8"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="53"/>
+      <c r="A108" s="7"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="49"/>
     </row>
     <row r="109" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="52"/>
-      <c r="D109" s="53"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="49"/>
     </row>
     <row r="110" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="52"/>
-      <c r="D110" s="53"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="49"/>
     </row>
     <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="52"/>
-      <c r="D111" s="53"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="49"/>
     </row>
     <row r="112" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="10"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="53"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="49"/>
     </row>
     <row r="113" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="10"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="53"/>
+      <c r="A113" s="8"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="49"/>
     </row>
     <row r="114" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="52"/>
-      <c r="D114" s="53"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="49"/>
     </row>
     <row r="115" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="52"/>
-      <c r="D115" s="53"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="49"/>
     </row>
     <row r="116" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="52"/>
-      <c r="D116" s="53"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="49"/>
     </row>
     <row r="117" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="8"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="53"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="49"/>
     </row>
     <row r="118" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="101"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="53"/>
+      <c r="A118" s="96"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="49"/>
     </row>
     <row r="119" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="52"/>
-      <c r="D119" s="53"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="49"/>
     </row>
     <row r="120" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="8"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="53"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="49"/>
     </row>
     <row r="121" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="10"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="53"/>
+      <c r="A121" s="8"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="49"/>
     </row>
     <row r="122" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="52"/>
-      <c r="D122" s="53"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="49"/>
     </row>
     <row r="123" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="52"/>
-      <c r="D123" s="53"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="49"/>
     </row>
     <row r="124" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="52"/>
-      <c r="D124" s="53"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="49"/>
     </row>
     <row r="125" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="52"/>
-      <c r="D125" s="53"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="49"/>
     </row>
     <row r="126" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="9"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="53"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="49"/>
     </row>
     <row r="127" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="101"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="53"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="49"/>
     </row>
     <row r="128" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="10"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="53"/>
+      <c r="A128" s="8"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="49"/>
     </row>
     <row r="129" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="52"/>
-      <c r="D129" s="53"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="49"/>
     </row>
     <row r="130" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="52"/>
-      <c r="D130" s="53"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="49"/>
     </row>
     <row r="131" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="52"/>
-      <c r="D131" s="53"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="49"/>
     </row>
     <row r="132" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="8"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="53"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="49"/>
     </row>
     <row r="133" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="8"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="53"/>
+      <c r="A133" s="7"/>
+      <c r="C133" s="48"/>
+      <c r="D133" s="49"/>
     </row>
     <row r="134" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="52"/>
-      <c r="D134" s="53"/>
+      <c r="C134" s="48"/>
+      <c r="D134" s="49"/>
     </row>
     <row r="135" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="52"/>
-      <c r="D135" s="53"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="49"/>
     </row>
     <row r="136" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="52"/>
-      <c r="D136" s="53"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="49"/>
     </row>
     <row r="137" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="10"/>
-      <c r="C137" s="52"/>
-      <c r="D137" s="53"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="49"/>
     </row>
     <row r="138" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="8"/>
-      <c r="C138" s="52"/>
-      <c r="D138" s="53"/>
+      <c r="A138" s="7"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="49"/>
     </row>
     <row r="139" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="52"/>
-      <c r="D139" s="53"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="49"/>
     </row>
     <row r="140" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="52"/>
-      <c r="D140" s="53"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="49"/>
     </row>
     <row r="141" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="101"/>
-      <c r="C141" s="52"/>
-      <c r="D141" s="53"/>
+      <c r="B141" s="96"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="49"/>
     </row>
     <row r="142" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="8"/>
-      <c r="C142" s="52"/>
-      <c r="D142" s="53"/>
+      <c r="A142" s="7"/>
+      <c r="C142" s="48"/>
+      <c r="D142" s="49"/>
     </row>
     <row r="143" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="52"/>
-      <c r="D143" s="53"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="49"/>
     </row>
     <row r="144" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="52"/>
-      <c r="D144" s="53"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="49"/>
     </row>
     <row r="145" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="52"/>
-      <c r="D145" s="53"/>
+      <c r="C145" s="48"/>
+      <c r="D145" s="49"/>
     </row>
     <row r="146" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="8"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="53"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="48"/>
+      <c r="D146" s="49"/>
     </row>
     <row r="147" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="8"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="53"/>
+      <c r="A147" s="7"/>
+      <c r="C147" s="48"/>
+      <c r="D147" s="49"/>
     </row>
     <row r="148" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="52"/>
-      <c r="D148" s="53"/>
+      <c r="C148" s="48"/>
+      <c r="D148" s="49"/>
     </row>
     <row r="149" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="52"/>
-      <c r="D149" s="53"/>
+      <c r="C149" s="48"/>
+      <c r="D149" s="49"/>
     </row>
     <row r="150" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="52"/>
-      <c r="D150" s="53"/>
+      <c r="C150" s="48"/>
+      <c r="D150" s="49"/>
     </row>
     <row r="151" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="8"/>
-      <c r="C151" s="52"/>
-      <c r="D151" s="53"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="48"/>
+      <c r="D151" s="49"/>
     </row>
     <row r="152" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="8"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="53"/>
+      <c r="A152" s="7"/>
+      <c r="C152" s="48"/>
+      <c r="D152" s="49"/>
     </row>
     <row r="153" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="52"/>
-      <c r="D153" s="53"/>
+      <c r="C153" s="48"/>
+      <c r="D153" s="49"/>
     </row>
     <row r="154" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="52"/>
-      <c r="D154" s="53"/>
+      <c r="C154" s="48"/>
+      <c r="D154" s="49"/>
     </row>
     <row r="155" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="52"/>
-      <c r="D155" s="53"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="49"/>
     </row>
     <row r="156" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="10"/>
-      <c r="C156" s="52"/>
-      <c r="D156" s="53"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="48"/>
+      <c r="D156" s="49"/>
     </row>
     <row r="157" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="10"/>
-      <c r="C157" s="52"/>
-      <c r="D157" s="53"/>
+      <c r="A157" s="8"/>
+      <c r="C157" s="48"/>
+      <c r="D157" s="49"/>
     </row>
     <row r="158" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C158" s="52"/>
-      <c r="D158" s="53"/>
+      <c r="C158" s="48"/>
+      <c r="D158" s="49"/>
     </row>
     <row r="159" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="52"/>
-      <c r="D159" s="53"/>
+      <c r="C159" s="48"/>
+      <c r="D159" s="49"/>
     </row>
     <row r="160" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C160" s="52"/>
-      <c r="D160" s="53"/>
+      <c r="C160" s="48"/>
+      <c r="D160" s="49"/>
     </row>
     <row r="161" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="8"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="53"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="48"/>
+      <c r="D161" s="49"/>
     </row>
     <row r="162" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="8"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="53"/>
+      <c r="A162" s="7"/>
+      <c r="C162" s="48"/>
+      <c r="D162" s="49"/>
     </row>
     <row r="163" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C163" s="52"/>
-      <c r="D163" s="53"/>
+      <c r="C163" s="48"/>
+      <c r="D163" s="49"/>
     </row>
     <row r="164" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C164" s="52"/>
-      <c r="D164" s="53"/>
+      <c r="C164" s="48"/>
+      <c r="D164" s="49"/>
     </row>
     <row r="165" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="111"/>
-      <c r="B165" s="101"/>
-      <c r="C165" s="52"/>
-      <c r="D165" s="53"/>
+      <c r="A165" s="105"/>
+      <c r="B165" s="96"/>
+      <c r="C165" s="48"/>
+      <c r="D165" s="49"/>
     </row>
     <row r="166" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="10"/>
-      <c r="C166" s="52"/>
-      <c r="D166" s="53"/>
+      <c r="A166" s="8"/>
+      <c r="C166" s="48"/>
+      <c r="D166" s="49"/>
     </row>
     <row r="167" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C167" s="52"/>
-      <c r="D167" s="53"/>
+      <c r="C167" s="48"/>
+      <c r="D167" s="49"/>
     </row>
     <row r="168" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="52"/>
-      <c r="D168" s="53"/>
+      <c r="C168" s="48"/>
+      <c r="D168" s="49"/>
     </row>
     <row r="169" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="52"/>
-      <c r="D169" s="53"/>
+      <c r="C169" s="48"/>
+      <c r="D169" s="49"/>
     </row>
     <row r="170" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="8"/>
-      <c r="C170" s="52"/>
-      <c r="D170" s="53"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="48"/>
+      <c r="D170" s="49"/>
     </row>
     <row r="171" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="8"/>
-      <c r="C171" s="52"/>
-      <c r="D171" s="53"/>
+      <c r="A171" s="7"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="49"/>
     </row>
     <row r="172" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="52"/>
-      <c r="D172" s="53"/>
+      <c r="C172" s="48"/>
+      <c r="D172" s="49"/>
     </row>
     <row r="173" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="52"/>
-      <c r="D173" s="53"/>
+      <c r="C173" s="48"/>
+      <c r="D173" s="49"/>
     </row>
     <row r="174" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="52"/>
-      <c r="D174" s="53"/>
+      <c r="C174" s="48"/>
+      <c r="D174" s="49"/>
     </row>
     <row r="175" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="10"/>
-      <c r="C175" s="52"/>
-      <c r="D175" s="53"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="48"/>
+      <c r="D175" s="49"/>
     </row>
     <row r="176" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="8"/>
-      <c r="C176" s="52"/>
-      <c r="D176" s="53"/>
+      <c r="A176" s="7"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="49"/>
     </row>
     <row r="177" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="9"/>
-      <c r="C177" s="52"/>
-      <c r="D177" s="53"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="49"/>
     </row>
     <row r="178" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="9"/>
-      <c r="C178" s="52"/>
-      <c r="D178" s="53"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="49"/>
     </row>
     <row r="179" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="101"/>
-      <c r="C179" s="52"/>
-      <c r="D179" s="53"/>
+      <c r="B179" s="96"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="49"/>
     </row>
     <row r="180" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="8"/>
-      <c r="C180" s="52"/>
-      <c r="D180" s="53"/>
+      <c r="A180" s="7"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="49"/>
     </row>
     <row r="181" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C181" s="52"/>
-      <c r="D181" s="53"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="49"/>
     </row>
     <row r="182" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C182" s="52"/>
-      <c r="D182" s="53"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="49"/>
     </row>
     <row r="183" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C183" s="52"/>
-      <c r="D183" s="53"/>
+      <c r="C183" s="48"/>
+      <c r="D183" s="49"/>
     </row>
     <row r="184" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="8"/>
-      <c r="C184" s="52"/>
-      <c r="D184" s="53"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="48"/>
+      <c r="D184" s="49"/>
     </row>
     <row r="185" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="8"/>
-      <c r="C185" s="52"/>
-      <c r="D185" s="53"/>
+      <c r="A185" s="7"/>
+      <c r="C185" s="48"/>
+      <c r="D185" s="49"/>
     </row>
     <row r="186" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C186" s="52"/>
-      <c r="D186" s="53"/>
+      <c r="C186" s="48"/>
+      <c r="D186" s="49"/>
     </row>
     <row r="187" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C187" s="52"/>
-      <c r="D187" s="53"/>
+      <c r="C187" s="48"/>
+      <c r="D187" s="49"/>
     </row>
     <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C188" s="52"/>
-      <c r="D188" s="53"/>
+      <c r="C188" s="48"/>
+      <c r="D188" s="49"/>
     </row>
     <row r="189" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="8"/>
-      <c r="C189" s="52"/>
-      <c r="D189" s="53"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="49"/>
     </row>
     <row r="190" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="8"/>
-      <c r="C190" s="52"/>
-      <c r="D190" s="53"/>
+      <c r="A190" s="7"/>
+      <c r="C190" s="48"/>
+      <c r="D190" s="49"/>
     </row>
     <row r="191" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C191" s="52"/>
-      <c r="D191" s="53"/>
+      <c r="C191" s="48"/>
+      <c r="D191" s="49"/>
     </row>
     <row r="192" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C192" s="52"/>
-      <c r="D192" s="53"/>
+      <c r="C192" s="48"/>
+      <c r="D192" s="49"/>
     </row>
     <row r="193" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C193" s="52"/>
-      <c r="D193" s="53"/>
+      <c r="C193" s="48"/>
+      <c r="D193" s="49"/>
     </row>
     <row r="194" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="10"/>
-      <c r="C194" s="52"/>
-      <c r="D194" s="53"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="48"/>
+      <c r="D194" s="49"/>
     </row>
     <row r="195" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="10"/>
-      <c r="C195" s="52"/>
-      <c r="D195" s="53"/>
+      <c r="A195" s="8"/>
+      <c r="C195" s="48"/>
+      <c r="D195" s="49"/>
     </row>
     <row r="196" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C196" s="52"/>
-      <c r="D196" s="53"/>
+      <c r="C196" s="48"/>
+      <c r="D196" s="49"/>
     </row>
     <row r="197" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C197" s="52"/>
-      <c r="D197" s="53"/>
+      <c r="C197" s="48"/>
+      <c r="D197" s="49"/>
     </row>
     <row r="198" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C198" s="52"/>
-      <c r="D198" s="53"/>
+      <c r="C198" s="48"/>
+      <c r="D198" s="49"/>
     </row>
     <row r="199" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="8"/>
-      <c r="C199" s="52"/>
-      <c r="D199" s="53"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="48"/>
+      <c r="D199" s="49"/>
     </row>
     <row r="200" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="8"/>
-      <c r="C200" s="52"/>
-      <c r="D200" s="53"/>
+      <c r="A200" s="7"/>
+      <c r="C200" s="48"/>
+      <c r="D200" s="49"/>
     </row>
     <row r="201" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C201" s="52"/>
-      <c r="D201" s="53"/>
+      <c r="C201" s="48"/>
+      <c r="D201" s="49"/>
     </row>
     <row r="202" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C202" s="52"/>
-      <c r="D202" s="53"/>
+      <c r="C202" s="48"/>
+      <c r="D202" s="49"/>
     </row>
     <row r="203" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="101"/>
-      <c r="C203" s="52"/>
-      <c r="D203" s="53"/>
+      <c r="B203" s="96"/>
+      <c r="C203" s="48"/>
+      <c r="D203" s="49"/>
     </row>
     <row r="204" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C204" s="52"/>
-      <c r="D204" s="53"/>
+      <c r="C204" s="48"/>
+      <c r="D204" s="49"/>
     </row>
     <row r="205" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="102"/>
-      <c r="C205" s="52"/>
-      <c r="D205" s="53"/>
+      <c r="B205" s="97"/>
+      <c r="C205" s="48"/>
+      <c r="D205" s="49"/>
     </row>
     <row r="206" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="102"/>
-      <c r="C206" s="52"/>
-      <c r="D206" s="53"/>
+      <c r="B206" s="97"/>
+      <c r="C206" s="48"/>
+      <c r="D206" s="49"/>
     </row>
     <row r="207" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="110"/>
-      <c r="C207" s="52"/>
-      <c r="D207" s="53"/>
+      <c r="B207" s="104"/>
+      <c r="C207" s="48"/>
+      <c r="D207" s="49"/>
     </row>
     <row r="208" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="110"/>
-      <c r="C208" s="52"/>
-      <c r="D208" s="53"/>
+      <c r="B208" s="104"/>
+      <c r="C208" s="48"/>
+      <c r="D208" s="49"/>
     </row>
     <row r="209" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="110"/>
-      <c r="C209" s="52"/>
-      <c r="D209" s="53"/>
+      <c r="B209" s="104"/>
+      <c r="C209" s="48"/>
+      <c r="D209" s="49"/>
     </row>
     <row r="210" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="110"/>
-      <c r="C210" s="52"/>
-      <c r="D210" s="53"/>
+      <c r="B210" s="104"/>
+      <c r="C210" s="48"/>
+      <c r="D210" s="49"/>
     </row>
     <row r="211" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C211" s="52"/>
-      <c r="D211" s="53"/>
+      <c r="C211" s="48"/>
+      <c r="D211" s="49"/>
     </row>
     <row r="212" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="110"/>
-      <c r="C212" s="52"/>
-      <c r="D212" s="53"/>
+      <c r="B212" s="104"/>
+      <c r="C212" s="48"/>
+      <c r="D212" s="49"/>
     </row>
     <row r="213" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="110"/>
-      <c r="C213" s="52"/>
-      <c r="D213" s="53"/>
+      <c r="B213" s="104"/>
+      <c r="C213" s="48"/>
+      <c r="D213" s="49"/>
     </row>
     <row r="214" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="110"/>
-      <c r="C214" s="52"/>
-      <c r="D214" s="53"/>
+      <c r="B214" s="104"/>
+      <c r="C214" s="48"/>
+      <c r="D214" s="49"/>
     </row>
     <row r="215" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="102"/>
-      <c r="C215" s="52"/>
-      <c r="D215" s="53"/>
+      <c r="B215" s="97"/>
+      <c r="C215" s="48"/>
+      <c r="D215" s="49"/>
     </row>
     <row r="216" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="110"/>
-      <c r="C216" s="52"/>
-      <c r="D216" s="53"/>
+      <c r="B216" s="104"/>
+      <c r="C216" s="48"/>
+      <c r="D216" s="49"/>
     </row>
     <row r="217" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="110"/>
-      <c r="C217" s="52"/>
-      <c r="D217" s="53"/>
+      <c r="B217" s="104"/>
+      <c r="C217" s="48"/>
+      <c r="D217" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5364,64 +5209,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="40" customWidth="1"/>
-    <col min="2" max="3" width="20.77734375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="43" customWidth="1"/>
-    <col min="5" max="7" width="18.77734375" style="40" customWidth="1"/>
-    <col min="8" max="16384" width="12.44140625" style="40"/>
+    <col min="1" max="1" width="30.77734375" style="36" customWidth="1"/>
+    <col min="2" max="3" width="20.77734375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="39" customWidth="1"/>
+    <col min="5" max="7" width="18.77734375" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="12.44140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="46">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="41">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="50">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="45">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="42"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="42"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="42"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="42"/>
+      <c r="C8" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5442,93 +5287,93 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.77734375" style="40" customWidth="1"/>
-    <col min="3" max="5" width="20.77734375" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="12.44140625" style="40"/>
+    <col min="1" max="2" width="30.77734375" style="36" customWidth="1"/>
+    <col min="3" max="5" width="20.77734375" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="12.44140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="45">
+      <c r="A2" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="41">
         <v>500</v>
       </c>
-      <c r="D2" s="45">
-        <v>1</v>
-      </c>
-      <c r="E2" s="46">
+      <c r="D2" s="41">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="110"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="110"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="110"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="110"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="110"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5543,7 +5388,7 @@
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5552,1211 +5397,1206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="38" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="61" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="14" style="61" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="61" customWidth="1"/>
-    <col min="11" max="13" width="15.109375" style="61" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" style="86" customWidth="1"/>
-    <col min="15" max="16" width="16.33203125" style="61" customWidth="1"/>
-    <col min="17" max="17" width="23.44140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="69" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="7"/>
+    <col min="1" max="1" width="7.44140625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="38" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="14" style="57" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="57" customWidth="1"/>
+    <col min="11" max="13" width="15.109375" style="57" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" style="82" customWidth="1"/>
+    <col min="15" max="16" width="16.33203125" style="57" customWidth="1"/>
+    <col min="17" max="17" width="23.44140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="69" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="H1" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="O1" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="Q1" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="86">
+        <f t="shared" ref="A2:A21" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="68">
+        <v>0.23</v>
+      </c>
+      <c r="G2" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="83">
+        <v>0</v>
+      </c>
+      <c r="I2" s="93">
+        <v>0.06</v>
+      </c>
+      <c r="J2" s="93">
+        <v>1</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="70">
+        <v>0.01</v>
+      </c>
+      <c r="M2" s="70">
+        <v>0.95</v>
+      </c>
+      <c r="N2" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91">
-        <f t="shared" ref="A2:A21" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="120" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="72">
-        <v>0.23</v>
-      </c>
-      <c r="G2" s="72">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="87">
+      <c r="O2" s="94">
         <v>0</v>
       </c>
-      <c r="I2" s="98">
-        <v>0.06</v>
-      </c>
-      <c r="J2" s="98">
-        <v>1</v>
-      </c>
-      <c r="K2" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="M2" s="74">
-        <v>0.95</v>
-      </c>
-      <c r="N2" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="99">
-        <v>0</v>
-      </c>
-      <c r="P2" s="83">
+      <c r="P2" s="79">
         <v>3</v>
       </c>
-      <c r="Q2" s="100">
+      <c r="Q2" s="95">
         <v>2</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91">
+      <c r="A3" s="86">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="68">
         <v>0.38</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="68">
         <v>0.35</v>
       </c>
-      <c r="H3" s="87">
+      <c r="H3" s="83">
         <v>0</v>
       </c>
-      <c r="I3" s="98">
+      <c r="I3" s="93">
         <v>0.3</v>
       </c>
-      <c r="J3" s="98">
-        <v>1</v>
-      </c>
-      <c r="K3" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" s="74">
+      <c r="J3" s="93">
+        <v>1</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="70">
         <v>0.05</v>
       </c>
-      <c r="M3" s="74">
+      <c r="M3" s="70">
         <v>0.75</v>
       </c>
-      <c r="N3" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O3" s="99">
-        <v>1</v>
-      </c>
-      <c r="P3" s="83">
+      <c r="N3" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" s="94">
+        <v>1</v>
+      </c>
+      <c r="P3" s="79">
         <v>7</v>
       </c>
-      <c r="Q3" s="100">
+      <c r="Q3" s="95">
         <v>5</v>
       </c>
-      <c r="R3" s="13"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91">
+      <c r="A4" s="86">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="68">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="68">
         <v>0.4</v>
       </c>
-      <c r="H4" s="87">
+      <c r="H4" s="83">
         <v>0</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="93">
         <v>0.75</v>
       </c>
-      <c r="J4" s="98">
+      <c r="J4" s="93">
         <v>0</v>
       </c>
-      <c r="K4" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="74">
+      <c r="K4" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="70">
         <v>0.3</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="70">
         <v>0.3</v>
       </c>
-      <c r="N4" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="99">
+      <c r="N4" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="94">
         <v>2</v>
       </c>
-      <c r="P4" s="83">
+      <c r="P4" s="79">
         <v>28</v>
       </c>
-      <c r="Q4" s="100">
+      <c r="Q4" s="95">
         <v>60</v>
       </c>
-      <c r="R4" s="13"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="91">
+      <c r="A5" s="86">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="68">
         <v>0.8</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="68">
         <v>0.4</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5" s="83">
         <v>0</v>
       </c>
-      <c r="I5" s="98">
-        <v>1</v>
-      </c>
-      <c r="J5" s="98">
+      <c r="I5" s="93">
+        <v>1</v>
+      </c>
+      <c r="J5" s="93">
         <v>0</v>
       </c>
-      <c r="K5" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" s="74">
-        <v>1</v>
-      </c>
-      <c r="M5" s="74">
+      <c r="K5" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="70">
+        <v>1</v>
+      </c>
+      <c r="M5" s="70">
         <v>0</v>
       </c>
-      <c r="N5" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O5" s="99">
+      <c r="N5" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="94">
         <v>5</v>
       </c>
-      <c r="P5" s="83">
+      <c r="P5" s="79">
         <v>100</v>
       </c>
-      <c r="Q5" s="100">
+      <c r="Q5" s="95">
         <v>150</v>
       </c>
-      <c r="R5" s="13"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91">
+      <c r="A6" s="86">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="83">
+        <v>0</v>
+      </c>
+      <c r="I6" s="93">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="93">
+        <v>0.95</v>
+      </c>
+      <c r="K6" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="72">
-        <v>0.15</v>
-      </c>
-      <c r="G6" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="87">
+      <c r="L6" s="70">
+        <v>0.01</v>
+      </c>
+      <c r="M6" s="70">
+        <v>0.95</v>
+      </c>
+      <c r="N6" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" s="94">
         <v>0</v>
       </c>
-      <c r="I6" s="98">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="98">
-        <v>0.95</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="M6" s="74">
-        <v>0.95</v>
-      </c>
-      <c r="N6" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O6" s="99">
-        <v>0</v>
-      </c>
-      <c r="P6" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>1</v>
-      </c>
-      <c r="R6" s="13" t="s">
+      <c r="P6" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>1</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="91">
+      <c r="A7" s="86">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="68">
         <v>0.7</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="68">
         <v>0.7</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="83">
         <v>0</v>
       </c>
-      <c r="I7" s="98">
+      <c r="I7" s="93">
         <v>0.5</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="93">
         <v>0.75</v>
       </c>
-      <c r="K7" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="74">
+      <c r="K7" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="70">
         <v>0.05</v>
       </c>
-      <c r="M7" s="74">
+      <c r="M7" s="70">
         <v>0.75</v>
       </c>
-      <c r="N7" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O7" s="99">
-        <v>1</v>
-      </c>
-      <c r="P7" s="83">
+      <c r="N7" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="94">
+        <v>1</v>
+      </c>
+      <c r="P7" s="79">
         <v>3</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="10">
         <v>2</v>
       </c>
-      <c r="R7" s="13"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="91">
+      <c r="A8" s="86">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="68">
         <v>101</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="68">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="83">
         <v>0</v>
       </c>
-      <c r="I8" s="98">
+      <c r="I8" s="93">
         <v>0.8</v>
       </c>
-      <c r="J8" s="98">
+      <c r="J8" s="93">
         <v>0.3</v>
       </c>
-      <c r="K8" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="74">
-        <v>1</v>
-      </c>
-      <c r="M8" s="74">
+      <c r="K8" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="70">
+        <v>1</v>
+      </c>
+      <c r="M8" s="70">
         <v>0.3</v>
       </c>
-      <c r="N8" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O8" s="99">
+      <c r="N8" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O8" s="94">
         <v>2</v>
       </c>
-      <c r="P8" s="83">
+      <c r="P8" s="79">
         <v>7</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="10">
         <v>100</v>
       </c>
-      <c r="R8" s="13"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="91">
+      <c r="A9" s="86">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="68">
         <v>101</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="68">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="83">
         <v>0</v>
       </c>
-      <c r="I9" s="98">
+      <c r="I9" s="93">
         <v>0.95</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="93">
         <v>0</v>
       </c>
-      <c r="K9" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="74">
-        <v>1</v>
-      </c>
-      <c r="M9" s="74">
+      <c r="K9" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="70">
+        <v>1</v>
+      </c>
+      <c r="M9" s="70">
         <v>0</v>
       </c>
-      <c r="N9" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O9" s="99">
+      <c r="N9" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="94">
         <v>2</v>
       </c>
-      <c r="P9" s="83">
+      <c r="P9" s="79">
         <v>14</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="10">
         <v>150</v>
       </c>
-      <c r="R9" s="13"/>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91">
+      <c r="A10" s="86">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="71">
+        <v>101</v>
+      </c>
+      <c r="G10" s="71">
+        <v>1</v>
+      </c>
+      <c r="H10" s="83">
+        <v>0</v>
+      </c>
+      <c r="I10" s="69">
+        <v>0.01</v>
+      </c>
+      <c r="J10" s="69">
+        <v>1</v>
+      </c>
+      <c r="K10" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="75">
-        <v>101</v>
-      </c>
-      <c r="G10" s="75">
-        <v>1</v>
-      </c>
-      <c r="H10" s="87">
+      <c r="L10" s="70">
         <v>0</v>
       </c>
-      <c r="I10" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="J10" s="73">
-        <v>1</v>
-      </c>
-      <c r="K10" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L10" s="74">
+      <c r="M10" s="70">
+        <v>1</v>
+      </c>
+      <c r="N10" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="94">
         <v>0</v>
       </c>
-      <c r="M10" s="74">
-        <v>1</v>
-      </c>
-      <c r="N10" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O10" s="99">
-        <v>0</v>
-      </c>
-      <c r="P10" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="14">
+      <c r="P10" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
         <v>0.5</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="91">
+      <c r="A11" s="86">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="71">
         <v>101</v>
       </c>
-      <c r="G11" s="75">
-        <v>1</v>
-      </c>
-      <c r="H11" s="87">
+      <c r="G11" s="71">
+        <v>1</v>
+      </c>
+      <c r="H11" s="83">
         <v>0</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="69">
         <v>0.01</v>
       </c>
-      <c r="J11" s="73">
-        <v>1</v>
-      </c>
-      <c r="K11" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="74">
+      <c r="J11" s="69">
+        <v>1</v>
+      </c>
+      <c r="K11" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="70">
         <v>0</v>
       </c>
-      <c r="M11" s="74">
-        <v>1</v>
-      </c>
-      <c r="N11" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O11" s="99">
+      <c r="M11" s="70">
+        <v>1</v>
+      </c>
+      <c r="N11" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O11" s="94">
         <v>0</v>
       </c>
-      <c r="P11" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>1</v>
-      </c>
-      <c r="R11" s="13"/>
+      <c r="P11" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>1</v>
+      </c>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="91">
+      <c r="A12" s="86">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="71">
         <v>101</v>
       </c>
-      <c r="G12" s="75">
-        <v>1</v>
-      </c>
-      <c r="H12" s="87">
+      <c r="G12" s="71">
+        <v>1</v>
+      </c>
+      <c r="H12" s="83">
         <v>0</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="69">
         <v>0.01</v>
       </c>
-      <c r="J12" s="73">
-        <v>1</v>
-      </c>
-      <c r="K12" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L12" s="74">
+      <c r="J12" s="69">
+        <v>1</v>
+      </c>
+      <c r="K12" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="70">
         <v>0</v>
       </c>
-      <c r="M12" s="74">
-        <v>1</v>
-      </c>
-      <c r="N12" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O12" s="99">
+      <c r="M12" s="70">
+        <v>1</v>
+      </c>
+      <c r="N12" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="94">
         <v>0</v>
       </c>
-      <c r="P12" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="14">
+      <c r="P12" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="10">
         <v>2</v>
       </c>
-      <c r="R12" s="13"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="91">
+      <c r="A13" s="86">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="71">
         <v>101</v>
       </c>
-      <c r="G13" s="75">
-        <v>1</v>
-      </c>
-      <c r="H13" s="87">
+      <c r="G13" s="71">
+        <v>1</v>
+      </c>
+      <c r="H13" s="83">
         <v>0</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="69">
         <v>0.01</v>
       </c>
-      <c r="J13" s="73">
-        <v>1</v>
-      </c>
-      <c r="K13" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L13" s="74">
+      <c r="J13" s="69">
+        <v>1</v>
+      </c>
+      <c r="K13" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="70">
         <v>0</v>
       </c>
-      <c r="M13" s="74">
-        <v>1</v>
-      </c>
-      <c r="N13" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O13" s="99">
+      <c r="M13" s="70">
+        <v>1</v>
+      </c>
+      <c r="N13" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="94">
         <v>0</v>
       </c>
-      <c r="P13" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="14">
+      <c r="P13" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="10">
         <v>4</v>
       </c>
-      <c r="R13" s="13"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="91">
+      <c r="A14" s="86">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="71">
+        <v>101</v>
+      </c>
+      <c r="G14" s="71">
+        <v>1</v>
+      </c>
+      <c r="H14" s="83">
+        <v>0</v>
+      </c>
+      <c r="I14" s="69">
+        <v>0.01</v>
+      </c>
+      <c r="J14" s="69">
+        <v>1</v>
+      </c>
+      <c r="K14" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="75">
-        <v>101</v>
-      </c>
-      <c r="G14" s="75">
-        <v>1</v>
-      </c>
-      <c r="H14" s="87">
+      <c r="L14" s="70">
         <v>0</v>
       </c>
-      <c r="I14" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="J14" s="73">
-        <v>1</v>
-      </c>
-      <c r="K14" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L14" s="74">
+      <c r="M14" s="70">
+        <v>1</v>
+      </c>
+      <c r="N14" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O14" s="94">
         <v>0</v>
       </c>
-      <c r="M14" s="74">
-        <v>1</v>
-      </c>
-      <c r="N14" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O14" s="99">
-        <v>0</v>
-      </c>
-      <c r="P14" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="14">
+      <c r="P14" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="10">
         <v>0.5</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="91">
+      <c r="A15" s="86">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="71">
         <v>101</v>
       </c>
-      <c r="G15" s="75">
-        <v>1</v>
-      </c>
-      <c r="H15" s="87">
+      <c r="G15" s="71">
+        <v>1</v>
+      </c>
+      <c r="H15" s="83">
         <v>0</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="69">
         <v>0.01</v>
       </c>
-      <c r="J15" s="73">
-        <v>1</v>
-      </c>
-      <c r="K15" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" s="74">
+      <c r="J15" s="69">
+        <v>1</v>
+      </c>
+      <c r="K15" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="70">
         <v>0</v>
       </c>
-      <c r="M15" s="74">
-        <v>1</v>
-      </c>
-      <c r="N15" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O15" s="99">
+      <c r="M15" s="70">
+        <v>1</v>
+      </c>
+      <c r="N15" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O15" s="94">
         <v>0</v>
       </c>
-      <c r="P15" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>1</v>
-      </c>
-      <c r="R15" s="13"/>
+      <c r="P15" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>1</v>
+      </c>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="91">
+      <c r="A16" s="86">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="71">
         <v>101</v>
       </c>
-      <c r="G16" s="75">
-        <v>1</v>
-      </c>
-      <c r="H16" s="87">
+      <c r="G16" s="71">
+        <v>1</v>
+      </c>
+      <c r="H16" s="83">
         <v>0</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="69">
         <v>0.01</v>
       </c>
-      <c r="J16" s="73">
-        <v>1</v>
-      </c>
-      <c r="K16" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L16" s="74">
+      <c r="J16" s="69">
+        <v>1</v>
+      </c>
+      <c r="K16" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" s="70">
         <v>0</v>
       </c>
-      <c r="M16" s="74">
-        <v>1</v>
-      </c>
-      <c r="N16" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O16" s="99">
+      <c r="M16" s="70">
+        <v>1</v>
+      </c>
+      <c r="N16" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O16" s="94">
         <v>0</v>
       </c>
-      <c r="P16" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="14">
+      <c r="P16" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="10">
         <v>2</v>
       </c>
-      <c r="R16" s="13"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="91">
+      <c r="A17" s="86">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="71">
         <v>101</v>
       </c>
-      <c r="G17" s="75">
-        <v>1</v>
-      </c>
-      <c r="H17" s="87">
+      <c r="G17" s="71">
+        <v>1</v>
+      </c>
+      <c r="H17" s="83">
         <v>0</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="69">
         <v>0.01</v>
       </c>
-      <c r="J17" s="73">
-        <v>1</v>
-      </c>
-      <c r="K17" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" s="74">
+      <c r="J17" s="69">
+        <v>1</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="70">
         <v>0</v>
       </c>
-      <c r="M17" s="74">
-        <v>1</v>
-      </c>
-      <c r="N17" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O17" s="99">
+      <c r="M17" s="70">
+        <v>1</v>
+      </c>
+      <c r="N17" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" s="94">
         <v>0</v>
       </c>
-      <c r="P17" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="14">
+      <c r="P17" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10">
         <v>4</v>
       </c>
-      <c r="R17" s="13"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="91">
+      <c r="A18" s="86">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="71">
+        <v>101</v>
+      </c>
+      <c r="G18" s="71">
+        <v>1</v>
+      </c>
+      <c r="H18" s="83">
+        <v>0</v>
+      </c>
+      <c r="I18" s="69">
+        <v>0.01</v>
+      </c>
+      <c r="J18" s="69">
+        <v>1</v>
+      </c>
+      <c r="K18" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="75">
-        <v>101</v>
-      </c>
-      <c r="G18" s="75">
-        <v>1</v>
-      </c>
-      <c r="H18" s="87">
+      <c r="L18" s="70">
         <v>0</v>
       </c>
-      <c r="I18" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="J18" s="73">
-        <v>1</v>
-      </c>
-      <c r="K18" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L18" s="74">
+      <c r="M18" s="70">
+        <v>1</v>
+      </c>
+      <c r="N18" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" s="94">
         <v>0</v>
       </c>
-      <c r="M18" s="74">
-        <v>1</v>
-      </c>
-      <c r="N18" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O18" s="99">
-        <v>0</v>
-      </c>
-      <c r="P18" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="14">
+      <c r="P18" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="10">
         <v>0.5</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="91">
+      <c r="A19" s="86">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="71">
         <v>101</v>
       </c>
-      <c r="G19" s="75">
-        <v>1</v>
-      </c>
-      <c r="H19" s="87">
+      <c r="G19" s="71">
+        <v>1</v>
+      </c>
+      <c r="H19" s="83">
         <v>0</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="69">
         <v>0.01</v>
       </c>
-      <c r="J19" s="73">
-        <v>1</v>
-      </c>
-      <c r="K19" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" s="74">
+      <c r="J19" s="69">
+        <v>1</v>
+      </c>
+      <c r="K19" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" s="70">
         <v>0</v>
       </c>
-      <c r="M19" s="74">
-        <v>1</v>
-      </c>
-      <c r="N19" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O19" s="99">
+      <c r="M19" s="70">
+        <v>1</v>
+      </c>
+      <c r="N19" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" s="94">
         <v>0</v>
       </c>
-      <c r="P19" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>1</v>
-      </c>
-      <c r="R19" s="13" t="s">
+      <c r="P19" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>1</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="91">
+      <c r="A20" s="86">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="71">
         <v>101</v>
       </c>
-      <c r="G20" s="75">
-        <v>1</v>
-      </c>
-      <c r="H20" s="87">
+      <c r="G20" s="71">
+        <v>1</v>
+      </c>
+      <c r="H20" s="83">
         <v>0</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="69">
         <v>0.01</v>
       </c>
-      <c r="J20" s="73">
-        <v>1</v>
-      </c>
-      <c r="K20" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L20" s="74">
+      <c r="J20" s="69">
+        <v>1</v>
+      </c>
+      <c r="K20" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" s="70">
         <v>0</v>
       </c>
-      <c r="M20" s="74">
-        <v>1</v>
-      </c>
-      <c r="N20" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O20" s="99">
+      <c r="M20" s="70">
+        <v>1</v>
+      </c>
+      <c r="N20" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" s="94">
         <v>0</v>
       </c>
-      <c r="P20" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="14">
+      <c r="P20" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="10">
         <v>2</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="91">
+      <c r="A21" s="86">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="71">
         <v>101</v>
       </c>
-      <c r="G21" s="75">
-        <v>1</v>
-      </c>
-      <c r="H21" s="87">
+      <c r="G21" s="71">
+        <v>1</v>
+      </c>
+      <c r="H21" s="83">
         <v>0</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="69">
         <v>0.01</v>
       </c>
-      <c r="J21" s="73">
-        <v>1</v>
-      </c>
-      <c r="K21" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L21" s="74">
+      <c r="J21" s="69">
+        <v>1</v>
+      </c>
+      <c r="K21" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" s="70">
         <v>0</v>
       </c>
-      <c r="M21" s="74">
-        <v>1</v>
-      </c>
-      <c r="N21" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="O21" s="99">
+      <c r="M21" s="70">
+        <v>1</v>
+      </c>
+      <c r="N21" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" s="94">
         <v>0</v>
       </c>
-      <c r="P21" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="14">
+      <c r="P21" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10">
         <v>4</v>
       </c>
-      <c r="R21" s="13"/>
+      <c r="R21" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:R4">
     <sortCondition ref="B2:B4"/>
   </sortState>
-  <conditionalFormatting sqref="F1:H1048576">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F20">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThanOrEqual">
       <formula>101</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThanOrEqual">
-      <formula>101</formula>
+  <conditionalFormatting sqref="F1:H1048576">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
+      <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6780,385 +6620,375 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" style="96" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="96" customWidth="1"/>
-    <col min="3" max="3" width="74.109375" style="96" customWidth="1"/>
-    <col min="4" max="4" width="48.77734375" style="96" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="96" customWidth="1"/>
-    <col min="6" max="6" width="60.33203125" style="96" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="96"/>
+    <col min="1" max="1" width="39" style="91" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="91" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" style="91" customWidth="1"/>
+    <col min="4" max="4" width="48.77734375" style="91" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="91" customWidth="1"/>
+    <col min="6" max="6" width="60.33203125" style="91" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="95" t="s">
+      <c r="A1" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="90" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+    <row r="2" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="123" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="124" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+    </row>
+    <row r="3" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+    </row>
+    <row r="4" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+    </row>
+    <row r="5" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+    </row>
+    <row r="6" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-    </row>
-    <row r="3" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="125" t="s">
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+    </row>
+    <row r="7" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+    </row>
+    <row r="8" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C8" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-    </row>
-    <row r="4" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="125" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="125" t="s">
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+    </row>
+    <row r="9" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C9" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-    </row>
-    <row r="5" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="127" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="128" t="s">
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+    </row>
+    <row r="10" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-    </row>
-    <row r="6" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="126" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+    </row>
+    <row r="11" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+    </row>
+    <row r="12" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+    </row>
+    <row r="13" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+    </row>
+    <row r="14" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-    </row>
-    <row r="7" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="125" t="s">
+      <c r="B14" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+    </row>
+    <row r="15" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+    </row>
+    <row r="16" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C16" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+    </row>
+    <row r="17" spans="1:6" s="92" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-    </row>
-    <row r="8" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="125" t="s">
+      <c r="B17" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-    </row>
-    <row r="9" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="125" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-    </row>
-    <row r="10" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="123" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="124" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-    </row>
-    <row r="11" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="125" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="125" t="s">
+      <c r="C17" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+    </row>
+    <row r="18" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+    </row>
+    <row r="19" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+    </row>
+    <row r="20" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-    </row>
-    <row r="12" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="125" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="125" t="s">
+      <c r="C20" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+    </row>
+    <row r="21" spans="1:6" s="92" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-    </row>
-    <row r="13" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="125" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="125" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-    </row>
-    <row r="14" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="123" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="123" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-    </row>
-    <row r="15" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="125" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="125" t="s">
+      <c r="C21" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+    </row>
+    <row r="22" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+    </row>
+    <row r="23" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+    </row>
+    <row r="24" spans="1:6" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-    </row>
-    <row r="16" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="125" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="125" t="s">
+      <c r="C24" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+    </row>
+    <row r="25" spans="1:6" s="92" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-    </row>
-    <row r="17" spans="1:6" s="97" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="125" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="125" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-    </row>
-    <row r="18" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="123" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="124" t="s">
+      <c r="C25" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-    </row>
-    <row r="19" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="125" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="125" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-    </row>
-    <row r="20" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="125" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="125" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-    </row>
-    <row r="21" spans="1:6" s="97" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="125" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="125" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-    </row>
-    <row r="22" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="123" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-    </row>
-    <row r="23" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="125" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="125" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-    </row>
-    <row r="24" spans="1:6" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="125" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="125" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-    </row>
-    <row r="25" spans="1:6" s="97" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="127" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="127" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C17">
-    <cfRule type="containsBlanks" dxfId="12" priority="5">
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C21">
-    <cfRule type="containsBlanks" dxfId="11" priority="2">
-      <formula>LEN(TRIM(C18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
-    <cfRule type="containsBlanks" dxfId="10" priority="1">
-      <formula>LEN(TRIM(C22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7170,107 +7000,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="30.77734375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="19"/>
+    <col min="1" max="4" width="30.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="88" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="85" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="85" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="89" t="s">
+    <row r="4" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="85" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89" t="s">
+    <row r="5" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="85" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89" t="s">
+    <row r="6" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="85" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="89" t="s">
+    <row r="7" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="85" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89" t="s">
+    <row r="8" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="85" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="89" t="s">
+    <row r="9" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="85" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:4" s="89" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" s="85" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
